--- a/GL90_Script_EditUnpostedJournal_21B.xlsx
+++ b/GL90_Script_EditUnpostedJournal_21B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF-Selenium_Python-master\UIAF-Selenium_Python-master\venv\Selenium\21B_Results_and_Scripts\GNB GL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJ4862\Desktop\GL Batch1 Scripts with Navigation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5419CF-6C23-4605-8114-205540F19D45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8F2586-A10D-4D07-A8CB-53BE0CE7727B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EditUnpostedJournal" sheetId="30" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="332">
   <si>
     <t>SCREENSHOT</t>
   </si>
@@ -19329,7 +19329,7 @@
   <dimension ref="A1:N221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -19682,9 +19682,7 @@
       <c r="N9" s="12"/>
     </row>
     <row r="10" spans="1:14" ht="13">
-      <c r="A10" s="12" t="s">
-        <v>191</v>
-      </c>
+      <c r="A10" s="12"/>
       <c r="B10" s="12" t="s">
         <v>1</v>
       </c>
@@ -19720,9 +19718,7 @@
       <c r="N10" s="12"/>
     </row>
     <row r="11" spans="1:14" ht="13">
-      <c r="A11" s="12" t="s">
-        <v>191</v>
-      </c>
+      <c r="A11" s="12"/>
       <c r="B11" s="12" t="s">
         <v>1</v>
       </c>
@@ -19754,9 +19750,7 @@
       <c r="N11" s="12"/>
     </row>
     <row r="12" spans="1:14" ht="13">
-      <c r="A12" s="12" t="s">
-        <v>191</v>
-      </c>
+      <c r="A12" s="12"/>
       <c r="B12" s="12" t="s">
         <v>1</v>
       </c>
@@ -19792,9 +19786,7 @@
       <c r="N12" s="12"/>
     </row>
     <row r="13" spans="1:14" ht="13">
-      <c r="A13" s="12" t="s">
-        <v>191</v>
-      </c>
+      <c r="A13" s="12"/>
       <c r="B13" s="12" t="s">
         <v>1</v>
       </c>
@@ -19826,9 +19818,7 @@
       <c r="N13" s="12"/>
     </row>
     <row r="14" spans="1:14" ht="13">
-      <c r="A14" s="12" t="s">
-        <v>191</v>
-      </c>
+      <c r="A14" s="12"/>
       <c r="B14" s="12" t="s">
         <v>1</v>
       </c>
@@ -19864,9 +19854,7 @@
       <c r="N14" s="12"/>
     </row>
     <row r="15" spans="1:14" ht="13">
-      <c r="A15" s="12" t="s">
-        <v>191</v>
-      </c>
+      <c r="A15" s="12"/>
       <c r="B15" s="12" t="s">
         <v>1</v>
       </c>

--- a/GL90_Script_EditUnpostedJournal_21B.xlsx
+++ b/GL90_Script_EditUnpostedJournal_21B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJ4862\Desktop\GL Batch1 Scripts with Navigation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8F2586-A10D-4D07-A8CB-53BE0CE7727B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4242A4-2B86-4725-B58D-F4BE715750C2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="333">
   <si>
     <t>SCREENSHOT</t>
   </si>
@@ -564,9 +564,6 @@
     <t>SelectCurrency</t>
   </si>
   <si>
-    <t>SetDelay</t>
-  </si>
-  <si>
     <t>ConversionRate</t>
   </si>
   <si>
@@ -1021,6 +1018,12 @@
   </si>
   <si>
     <t>//*[contains(@id,'clusters-right-nav')]</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>WaitForDuration</t>
   </si>
 </sst>
 </file>
@@ -19329,7 +19332,7 @@
   <dimension ref="A1:N221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -19392,7 +19395,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="13">
@@ -19422,7 +19425,7 @@
         <v>39</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K2" s="13"/>
       <c r="L2" s="12"/>
@@ -19456,12 +19459,12 @@
         <v>39</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K3" s="12"/>
       <c r="L3" s="14"/>
       <c r="M3" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N3" s="12"/>
     </row>
@@ -19474,10 +19477,10 @@
         <v>29</v>
       </c>
       <c r="D4" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>277</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>278</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>26</v>
@@ -19497,7 +19500,7 @@
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N4" s="12"/>
     </row>
@@ -19533,7 +19536,7 @@
       <c r="K5" s="13"/>
       <c r="L5" s="12"/>
       <c r="M5" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N5" s="12"/>
     </row>
@@ -19569,7 +19572,7 @@
       <c r="K6" s="13"/>
       <c r="L6" s="12"/>
       <c r="M6" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N6" s="12"/>
     </row>
@@ -19605,7 +19608,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N7" s="12"/>
     </row>
@@ -19636,12 +19639,12 @@
         <v>39</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N8" s="12"/>
     </row>
@@ -19677,7 +19680,7 @@
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N9" s="12"/>
     </row>
@@ -19690,10 +19693,10 @@
         <v>52</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>26</v>
@@ -19702,18 +19705,18 @@
         <v>47</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I10" s="12" t="s">
         <v>39</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N10" s="12"/>
     </row>
@@ -19726,10 +19729,10 @@
         <v>54</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>26</v>
@@ -19738,14 +19741,14 @@
         <v>24</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="17"/>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N11" s="12"/>
     </row>
@@ -19770,18 +19773,18 @@
         <v>47</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I12" s="12" t="s">
         <v>39</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
       <c r="M12" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N12" s="12"/>
     </row>
@@ -19791,7 +19794,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>71</v>
@@ -19806,14 +19809,14 @@
         <v>24</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I13" s="13"/>
       <c r="J13" s="18"/>
       <c r="K13" s="13"/>
       <c r="L13" s="12"/>
       <c r="M13" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N13" s="12"/>
     </row>
@@ -19826,7 +19829,7 @@
         <v>56</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>46</v>
@@ -19844,12 +19847,12 @@
         <v>39</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
       <c r="M14" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N14" s="12"/>
     </row>
@@ -19881,13 +19884,13 @@
       <c r="K15" s="13"/>
       <c r="L15" s="12"/>
       <c r="M15" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N15" s="12"/>
     </row>
     <row r="16" spans="1:14" ht="13">
       <c r="A16" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>121</v>
@@ -19914,18 +19917,18 @@
         <v>39</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K16" s="13"/>
       <c r="L16" s="12"/>
       <c r="M16" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N16" s="12"/>
     </row>
     <row r="17" spans="1:14" ht="13">
       <c r="A17" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>121</v>
@@ -19953,19 +19956,19 @@
       <c r="K17" s="13"/>
       <c r="L17" s="12"/>
       <c r="M17" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N17" s="12"/>
     </row>
     <row r="18" spans="1:14" ht="13">
       <c r="A18" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>121</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>93</v>
@@ -19986,18 +19989,18 @@
         <v>39</v>
       </c>
       <c r="J18" s="16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K18" s="13"/>
       <c r="L18" s="12"/>
       <c r="M18" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N18" s="12"/>
     </row>
     <row r="19" spans="1:14" ht="13">
       <c r="A19" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>121</v>
@@ -20025,19 +20028,19 @@
       <c r="K19" s="13"/>
       <c r="L19" s="12"/>
       <c r="M19" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N19" s="12"/>
     </row>
     <row r="20" spans="1:14" ht="13">
       <c r="A20" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>121</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>93</v>
@@ -20052,24 +20055,24 @@
         <v>47</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I20" s="12" t="s">
         <v>39</v>
       </c>
       <c r="J20" s="16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K20" s="13"/>
       <c r="L20" s="12"/>
       <c r="M20" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N20" s="12"/>
     </row>
     <row r="21" spans="1:14" ht="13">
       <c r="A21" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>121</v>
@@ -20078,34 +20081,34 @@
         <v>112</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>16</v>
+        <v>331</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>179</v>
+        <v>332</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="12" t="s">
         <v>39</v>
       </c>
       <c r="J21" s="16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
       <c r="M21" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N21" s="12"/>
     </row>
     <row r="22" spans="1:14" ht="13">
       <c r="A22" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>121</v>
@@ -20132,18 +20135,18 @@
         <v>39</v>
       </c>
       <c r="J22" s="16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K22" s="13"/>
       <c r="L22" s="12"/>
       <c r="M22" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N22" s="12"/>
     </row>
     <row r="23" spans="1:14" ht="13">
       <c r="A23" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>121</v>
@@ -20171,13 +20174,13 @@
       <c r="K23" s="13"/>
       <c r="L23" s="12"/>
       <c r="M23" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N23" s="12"/>
     </row>
     <row r="24" spans="1:14" ht="13">
       <c r="A24" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>121</v>
@@ -20204,18 +20207,18 @@
         <v>39</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K24" s="13"/>
       <c r="L24" s="12"/>
       <c r="M24" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N24" s="12"/>
     </row>
     <row r="25" spans="1:14" ht="13">
       <c r="A25" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>121</v>
@@ -20242,24 +20245,24 @@
         <v>39</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K25" s="13"/>
       <c r="L25" s="12"/>
       <c r="M25" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N25" s="12"/>
     </row>
     <row r="26" spans="1:14" ht="13">
       <c r="A26" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>121</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>172</v>
@@ -20285,19 +20288,19 @@
       <c r="K26" s="13"/>
       <c r="L26" s="12"/>
       <c r="M26" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N26" s="12"/>
     </row>
     <row r="27" spans="1:14" ht="13">
       <c r="A27" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>121</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>163</v>
@@ -20319,19 +20322,19 @@
       <c r="K27" s="13"/>
       <c r="L27" s="12"/>
       <c r="M27" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N27" s="12"/>
     </row>
     <row r="28" spans="1:14" ht="13">
       <c r="A28" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>121</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>163</v>
@@ -20343,29 +20346,29 @@
         <v>26</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
       <c r="K28" s="13"/>
       <c r="L28" s="12"/>
       <c r="M28" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N28" s="12"/>
     </row>
     <row r="29" spans="1:14" ht="13">
       <c r="A29" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>121</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>61</v>
@@ -20377,7 +20380,7 @@
         <v>26</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H29" s="12" t="s">
         <v>59</v>
@@ -20389,19 +20392,19 @@
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
       <c r="M29" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N29" s="12"/>
     </row>
     <row r="30" spans="1:14" ht="12" customHeight="1">
       <c r="A30" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>121</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>100</v>
@@ -20422,24 +20425,24 @@
         <v>39</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K30" s="13"/>
       <c r="L30" s="12"/>
       <c r="M30" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N30" s="12"/>
     </row>
     <row r="31" spans="1:14" ht="13">
       <c r="A31" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>121</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>104</v>
@@ -20460,24 +20463,24 @@
         <v>39</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K31" s="13"/>
       <c r="L31" s="12"/>
       <c r="M31" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N31" s="12"/>
     </row>
     <row r="32" spans="1:14" ht="14.25" customHeight="1">
       <c r="A32" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>121</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>103</v>
@@ -20499,7 +20502,7 @@
       <c r="K32" s="13"/>
       <c r="L32" s="12"/>
       <c r="M32" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N32" s="12"/>
     </row>
@@ -20509,10 +20512,10 @@
         <v>121</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>46</v>
@@ -20524,18 +20527,18 @@
         <v>47</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I33" s="12" t="s">
         <v>39</v>
       </c>
       <c r="J33" s="16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K33" s="13"/>
       <c r="L33" s="19"/>
       <c r="M33" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N33" s="12"/>
     </row>
@@ -20548,10 +20551,10 @@
         <v>138</v>
       </c>
       <c r="D34" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E34" s="12" t="s">
         <v>184</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>185</v>
       </c>
       <c r="F34" s="12" t="s">
         <v>26</v>
@@ -20560,14 +20563,14 @@
         <v>24</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I34" s="13"/>
       <c r="J34" s="18"/>
       <c r="K34" s="13"/>
       <c r="L34" s="19"/>
       <c r="M34" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N34" s="12"/>
     </row>
@@ -20580,44 +20583,44 @@
         <v>139</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>16</v>
+        <v>331</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>179</v>
+        <v>332</v>
       </c>
       <c r="H35" s="14"/>
       <c r="I35" s="12" t="s">
         <v>39</v>
       </c>
       <c r="J35" s="20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K35" s="14"/>
       <c r="L35" s="14"/>
       <c r="M35" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N35" s="12"/>
     </row>
     <row r="36" spans="1:14" ht="13">
       <c r="A36" s="12"/>
       <c r="B36" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D36" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="E36" s="12" t="s">
         <v>275</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>276</v>
       </c>
       <c r="F36" s="12" t="s">
         <v>26</v>
@@ -20626,18 +20629,18 @@
         <v>42</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I36" s="14" t="s">
         <v>39</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K36" s="13"/>
       <c r="L36" s="14"/>
       <c r="M36" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N36" s="12"/>
     </row>
@@ -20647,31 +20650,31 @@
         <v>121</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>16</v>
+        <v>331</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>179</v>
+        <v>332</v>
       </c>
       <c r="H37" s="14"/>
       <c r="I37" s="12" t="s">
         <v>39</v>
       </c>
       <c r="J37" s="16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K37" s="14"/>
       <c r="L37" s="14"/>
       <c r="M37" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N37" s="12"/>
     </row>
@@ -20681,10 +20684,10 @@
         <v>121</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>46</v>
@@ -20696,18 +20699,18 @@
         <v>47</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I38" s="12" t="s">
         <v>39</v>
       </c>
       <c r="J38" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K38" s="13"/>
       <c r="L38" s="19"/>
       <c r="M38" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N38" s="12"/>
     </row>
@@ -20717,13 +20720,13 @@
         <v>121</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D39" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="E39" s="12" t="s">
         <v>197</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>198</v>
       </c>
       <c r="F39" s="12" t="s">
         <v>26</v>
@@ -20732,14 +20735,14 @@
         <v>24</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I39" s="13"/>
       <c r="J39" s="18"/>
       <c r="K39" s="13"/>
       <c r="L39" s="19"/>
       <c r="M39" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N39" s="12"/>
     </row>
@@ -20749,13 +20752,13 @@
         <v>121</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D40" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E40" s="12" t="s">
         <v>199</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>200</v>
       </c>
       <c r="F40" s="12" t="s">
         <v>26</v>
@@ -20764,33 +20767,33 @@
         <v>42</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I40" s="14" t="s">
         <v>39</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K40" s="13"/>
       <c r="L40" s="14"/>
       <c r="M40" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N40" s="12"/>
     </row>
     <row r="41" spans="1:14" ht="13">
       <c r="A41" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>121</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>46</v>
@@ -20802,36 +20805,36 @@
         <v>47</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I41" s="12" t="s">
         <v>39</v>
       </c>
       <c r="J41" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K41" s="13"/>
       <c r="L41" s="19"/>
       <c r="M41" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N41" s="12"/>
     </row>
     <row r="42" spans="1:14" ht="13">
       <c r="A42" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>121</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D42" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="E42" s="12" t="s">
         <v>209</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>210</v>
       </c>
       <c r="F42" s="12" t="s">
         <v>26</v>
@@ -20840,50 +20843,50 @@
         <v>24</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I42" s="13"/>
       <c r="J42" s="18"/>
       <c r="K42" s="13"/>
       <c r="L42" s="19"/>
       <c r="M42" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N42" s="12"/>
     </row>
     <row r="43" spans="1:14" ht="13">
       <c r="A43" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B43" s="12" t="s">
         <v>121</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>16</v>
+        <v>331</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>179</v>
+        <v>332</v>
       </c>
       <c r="H43" s="14"/>
       <c r="I43" s="12" t="s">
         <v>39</v>
       </c>
       <c r="J43" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K43" s="14"/>
       <c r="L43" s="14"/>
       <c r="M43" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N43" s="12"/>
     </row>
@@ -20893,31 +20896,31 @@
         <v>121</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D44" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="E44" s="12" t="s">
         <v>247</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>248</v>
       </c>
       <c r="F44" s="12" t="s">
         <v>26</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I44" s="13"/>
       <c r="J44" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K44" s="13"/>
       <c r="L44" s="12"/>
       <c r="M44" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N44" s="12"/>
     </row>
@@ -20927,10 +20930,10 @@
         <v>121</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>46</v>
@@ -20942,18 +20945,18 @@
         <v>47</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I45" s="12" t="s">
         <v>39</v>
       </c>
       <c r="J45" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K45" s="13"/>
       <c r="L45" s="19"/>
       <c r="M45" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N45" s="12"/>
     </row>
@@ -20963,13 +20966,13 @@
         <v>121</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D46" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="E46" s="12" t="s">
         <v>209</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>210</v>
       </c>
       <c r="F46" s="12" t="s">
         <v>26</v>
@@ -20978,101 +20981,101 @@
         <v>24</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I46" s="13"/>
       <c r="J46" s="18"/>
       <c r="K46" s="13"/>
       <c r="L46" s="19"/>
       <c r="M46" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N46" s="12"/>
     </row>
     <row r="47" spans="1:14" ht="13">
       <c r="A47" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B47" s="12" t="s">
         <v>121</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>16</v>
+        <v>331</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>179</v>
+        <v>332</v>
       </c>
       <c r="H47" s="12"/>
       <c r="I47" s="12" t="s">
         <v>39</v>
       </c>
       <c r="J47" s="20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K47" s="12"/>
       <c r="L47" s="12"/>
       <c r="M47" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N47" s="12"/>
     </row>
     <row r="48" spans="1:14" ht="13">
       <c r="A48" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B48" s="12" t="s">
         <v>121</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>16</v>
+        <v>331</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>179</v>
+        <v>332</v>
       </c>
       <c r="H48" s="12"/>
       <c r="I48" s="12" t="s">
         <v>39</v>
       </c>
       <c r="J48" s="20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K48" s="12"/>
       <c r="L48" s="12"/>
       <c r="M48" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N48" s="12"/>
     </row>
     <row r="49" spans="1:14" ht="13">
       <c r="A49" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>46</v>
@@ -21090,12 +21093,12 @@
         <v>39</v>
       </c>
       <c r="J49" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K49" s="13"/>
       <c r="L49" s="19"/>
       <c r="M49" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N49" s="12"/>
     </row>
@@ -21105,10 +21108,10 @@
         <v>121</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>46</v>
@@ -21120,18 +21123,18 @@
         <v>47</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I50" s="12" t="s">
         <v>39</v>
       </c>
       <c r="J50" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K50" s="13"/>
       <c r="L50" s="19"/>
       <c r="M50" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N50" s="12"/>
     </row>
@@ -21141,13 +21144,13 @@
         <v>121</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D51" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="E51" s="12" t="s">
         <v>215</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>216</v>
       </c>
       <c r="F51" s="12" t="s">
         <v>26</v>
@@ -21156,14 +21159,14 @@
         <v>24</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I51" s="13"/>
       <c r="J51" s="18"/>
       <c r="K51" s="13"/>
       <c r="L51" s="19"/>
       <c r="M51" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N51" s="12"/>
     </row>
@@ -21173,31 +21176,31 @@
         <v>121</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>16</v>
+        <v>331</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>179</v>
+        <v>332</v>
       </c>
       <c r="H52" s="14"/>
       <c r="I52" s="12" t="s">
         <v>39</v>
       </c>
       <c r="J52" s="16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K52" s="14"/>
       <c r="L52" s="14"/>
       <c r="M52" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N52" s="12"/>
     </row>
@@ -21207,31 +21210,31 @@
         <v>121</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D53" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="E53" s="12" t="s">
         <v>247</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>248</v>
       </c>
       <c r="F53" s="12" t="s">
         <v>26</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I53" s="13"/>
       <c r="J53" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K53" s="13"/>
       <c r="L53" s="12"/>
       <c r="M53" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N53" s="12"/>
     </row>
@@ -21241,10 +21244,10 @@
         <v>121</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>46</v>
@@ -21256,18 +21259,18 @@
         <v>47</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I54" s="12" t="s">
         <v>39</v>
       </c>
       <c r="J54" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K54" s="13"/>
       <c r="L54" s="19"/>
       <c r="M54" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N54" s="12"/>
     </row>
@@ -21277,13 +21280,13 @@
         <v>121</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D55" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="E55" s="12" t="s">
         <v>209</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>210</v>
       </c>
       <c r="F55" s="12" t="s">
         <v>26</v>
@@ -21292,14 +21295,14 @@
         <v>24</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I55" s="13"/>
       <c r="J55" s="18"/>
       <c r="K55" s="13"/>
       <c r="L55" s="19"/>
       <c r="M55" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N55" s="12"/>
     </row>
@@ -21309,31 +21312,31 @@
         <v>121</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>16</v>
+        <v>331</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>179</v>
+        <v>332</v>
       </c>
       <c r="H56" s="12"/>
       <c r="I56" s="12" t="s">
         <v>39</v>
       </c>
       <c r="J56" s="20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K56" s="12"/>
       <c r="L56" s="12"/>
       <c r="M56" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N56" s="12"/>
     </row>
@@ -21343,31 +21346,31 @@
         <v>121</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>16</v>
+        <v>331</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>179</v>
+        <v>332</v>
       </c>
       <c r="H57" s="12"/>
       <c r="I57" s="12" t="s">
         <v>39</v>
       </c>
       <c r="J57" s="20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K57" s="12"/>
       <c r="L57" s="12"/>
       <c r="M57" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N57" s="12"/>
     </row>
@@ -21377,46 +21380,46 @@
         <v>121</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>16</v>
+        <v>331</v>
       </c>
       <c r="G58" s="14" t="s">
-        <v>179</v>
+        <v>332</v>
       </c>
       <c r="H58" s="14"/>
       <c r="I58" s="12" t="s">
         <v>39</v>
       </c>
       <c r="J58" s="16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K58" s="14"/>
       <c r="L58" s="14"/>
       <c r="M58" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N58" s="12"/>
     </row>
     <row r="59" spans="1:14" ht="13">
       <c r="A59" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B59" s="12" t="s">
         <v>121</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E59" s="12" t="s">
         <v>46</v>
@@ -21434,24 +21437,24 @@
         <v>39</v>
       </c>
       <c r="J59" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K59" s="13"/>
       <c r="L59" s="19"/>
       <c r="M59" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N59" s="12"/>
     </row>
     <row r="60" spans="1:14" ht="13">
       <c r="A60" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B60" s="12" t="s">
         <v>121</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>122</v>
@@ -21477,22 +21480,22 @@
       <c r="K60" s="12"/>
       <c r="L60" s="12"/>
       <c r="M60" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N60" s="12"/>
     </row>
     <row r="61" spans="1:14" ht="13">
       <c r="A61" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B61" s="12" t="s">
         <v>121</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E61" s="12" t="s">
         <v>46</v>
@@ -21510,30 +21513,30 @@
         <v>39</v>
       </c>
       <c r="J61" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K61" s="13"/>
       <c r="L61" s="19"/>
       <c r="M61" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N61" s="12"/>
     </row>
     <row r="62" spans="1:14" ht="13">
       <c r="A62" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B62" s="12" t="s">
         <v>121</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F62" s="12" t="s">
         <v>26</v>
@@ -21549,7 +21552,7 @@
       <c r="K62" s="13"/>
       <c r="L62" s="19"/>
       <c r="M62" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N62" s="12"/>
     </row>
@@ -21559,10 +21562,10 @@
         <v>121</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E63" s="12" t="s">
         <v>46</v>
@@ -21580,12 +21583,12 @@
         <v>39</v>
       </c>
       <c r="J63" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K63" s="13"/>
       <c r="L63" s="19"/>
       <c r="M63" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N63" s="12"/>
     </row>
@@ -21595,7 +21598,7 @@
         <v>121</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D64" s="12" t="s">
         <v>122</v>
@@ -21621,7 +21624,7 @@
       <c r="K64" s="12"/>
       <c r="L64" s="12"/>
       <c r="M64" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N64" s="12"/>
     </row>
@@ -21631,7 +21634,7 @@
         <v>121</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D65" s="12" t="s">
         <v>126</v>
@@ -21652,7 +21655,7 @@
         <v>39</v>
       </c>
       <c r="J65" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K65" s="12"/>
       <c r="L65" s="12"/>
@@ -21667,7 +21670,7 @@
         <v>121</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D66" s="12" t="s">
         <v>129</v>
@@ -21703,7 +21706,7 @@
         <v>121</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D67" s="12" t="s">
         <v>132</v>
@@ -21724,7 +21727,7 @@
         <v>39</v>
       </c>
       <c r="J67" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K67" s="12"/>
       <c r="L67" s="12"/>
@@ -21739,7 +21742,7 @@
         <v>121</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>135</v>
@@ -21775,7 +21778,7 @@
         <v>121</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D69" s="12" t="s">
         <v>137</v>
@@ -21787,7 +21790,7 @@
         <v>16</v>
       </c>
       <c r="G69" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H69" s="12"/>
       <c r="I69" s="12" t="s">
@@ -22566,7 +22569,6 @@
       <c r="K221" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N69" xr:uid="{3E47DC6C-278C-4871-A1D0-D86088F6A661}"/>
   <phoneticPr fontId="32" type="noConversion"/>
   <conditionalFormatting sqref="H189:I189">
     <cfRule type="duplicateValues" dxfId="162" priority="240"/>
@@ -22935,7 +22937,7 @@
         <v>84</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>26</v>
@@ -23285,7 +23287,7 @@
         <v>84</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>26</v>
@@ -23383,7 +23385,7 @@
         <v>84</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>26</v>
@@ -23467,7 +23469,7 @@
         <v>84</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>26</v>
@@ -23475,13 +23477,13 @@
     </row>
     <row r="43" spans="1:4" ht="13.5" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>26</v>
@@ -23489,13 +23491,13 @@
     </row>
     <row r="44" spans="1:4" ht="13.5" customHeight="1">
       <c r="A44" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>26</v>
@@ -23503,13 +23505,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>26</v>
@@ -23517,13 +23519,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>26</v>
@@ -23531,13 +23533,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>26</v>
@@ -23545,13 +23547,13 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>26</v>
@@ -23559,13 +23561,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>26</v>
@@ -23573,13 +23575,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>26</v>
@@ -23587,13 +23589,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>26</v>
@@ -23601,13 +23603,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>26</v>
@@ -23615,13 +23617,13 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>26</v>
@@ -23629,13 +23631,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>26</v>
@@ -23643,13 +23645,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>26</v>
@@ -23663,7 +23665,7 @@
         <v>84</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>26</v>
@@ -23671,13 +23673,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>26</v>
@@ -23685,13 +23687,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>26</v>
@@ -23699,13 +23701,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>26</v>
@@ -23713,13 +23715,13 @@
     </row>
     <row r="60" spans="1:4" ht="12" customHeight="1">
       <c r="A60" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>26</v>
@@ -23727,13 +23729,13 @@
     </row>
     <row r="61" spans="1:4" ht="12" customHeight="1">
       <c r="A61" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>26</v>
@@ -23741,13 +23743,13 @@
     </row>
     <row r="62" spans="1:4" ht="12" customHeight="1">
       <c r="A62" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>26</v>
@@ -23755,13 +23757,13 @@
     </row>
     <row r="63" spans="1:4" ht="12" customHeight="1">
       <c r="A63" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>26</v>
@@ -23769,13 +23771,13 @@
     </row>
     <row r="64" spans="1:4" ht="12" customHeight="1">
       <c r="A64" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>26</v>
@@ -23783,13 +23785,13 @@
     </row>
     <row r="65" spans="1:4" ht="12" customHeight="1">
       <c r="A65" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>26</v>
@@ -23797,13 +23799,13 @@
     </row>
     <row r="66" spans="1:4" ht="12" customHeight="1">
       <c r="A66" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>26</v>
@@ -23811,13 +23813,13 @@
     </row>
     <row r="67" spans="1:4" ht="12" customHeight="1">
       <c r="A67" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>26</v>
@@ -23825,13 +23827,13 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>26</v>
@@ -23839,13 +23841,13 @@
     </row>
     <row r="69" spans="1:4" s="9" customFormat="1">
       <c r="A69" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>26</v>
@@ -23853,13 +23855,13 @@
     </row>
     <row r="70" spans="1:4" s="9" customFormat="1">
       <c r="A70" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>26</v>
@@ -23867,13 +23869,13 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>26</v>
@@ -23881,13 +23883,13 @@
     </row>
     <row r="72" spans="1:4" s="9" customFormat="1">
       <c r="A72" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>26</v>

--- a/GL90_Script_EditUnpostedJournal_21B.xlsx
+++ b/GL90_Script_EditUnpostedJournal_21B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJ4862\Desktop\GL Batch1 Scripts with Navigation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PriyankJain\Desktop\23June-GL Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4242A4-2B86-4725-B58D-F4BE715750C2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD352A6-A937-4A75-AD76-9B01FAE6572C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EditUnpostedJournal" sheetId="30" r:id="rId1"/>
@@ -18,14 +18,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AllObjects!$A$1:$D$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">EditUnpostedJournal!$A$1:$N$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">EditUnpostedJournal!$A$1:$N$89</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="359">
   <si>
     <t>SCREENSHOT</t>
   </si>
@@ -315,9 +315,6 @@
     <t>//input[contains(@id,'pt1:ap1:queryP:value20::content')]</t>
   </si>
   <si>
-    <t>Accounting Period entered</t>
-  </si>
-  <si>
     <t>//button[contains(@id,':pt1:ap1:queryP::search')]</t>
   </si>
   <si>
@@ -513,12 +510,6 @@
     <t>JournalName</t>
   </si>
   <si>
-    <t>Clicked on JournalName</t>
-  </si>
-  <si>
-    <t>Click on JournalName</t>
-  </si>
-  <si>
     <t>//input[contains(@id,'ap1:queryP:value10::content')]</t>
   </si>
   <si>
@@ -543,9 +534,6 @@
     <t>Explicit wait for EnterBatch</t>
   </si>
   <si>
-    <t>Enter on EnterBatch</t>
-  </si>
-  <si>
     <t>//button[contains(@id,'pt1:ap1:queryP::mode')]</t>
   </si>
   <si>
@@ -741,9 +729,6 @@
     <t>Explicit wait for UsernameClick</t>
   </si>
   <si>
-    <t>//button[contains(@id,':userResponsePopupDialogButtonOk')]</t>
-  </si>
-  <si>
     <t>ConfOk</t>
   </si>
   <si>
@@ -849,12 +834,6 @@
     <t>//textarea[contains(@id,'pt1:ap1:showLessBatchDescription::content')]</t>
   </si>
   <si>
-    <t>Enter CompanyValue</t>
-  </si>
-  <si>
-    <t>CompanyValue entered</t>
-  </si>
-  <si>
     <t>Click on username</t>
   </si>
   <si>
@@ -873,12 +852,6 @@
     <t>ExpandSearch</t>
   </si>
   <si>
-    <t>Edit Unposted Journal4</t>
-  </si>
-  <si>
-    <t>Edit Unposted Journal5</t>
-  </si>
-  <si>
     <t>CloseWindow</t>
   </si>
   <si>
@@ -1020,10 +993,116 @@
     <t>//*[contains(@id,'clusters-right-nav')]</t>
   </si>
   <si>
+    <t xml:space="preserve">Yes
+</t>
+  </si>
+  <si>
+    <t>EnterJournalName</t>
+  </si>
+  <si>
+    <t>Delay</t>
+  </si>
+  <si>
+    <t>Delayed</t>
+  </si>
+  <si>
     <t>Common</t>
   </si>
   <si>
     <t>WaitForDuration</t>
+  </si>
+  <si>
+    <t>Click on EnterBatch</t>
+  </si>
+  <si>
+    <t>Clicked on AccountingPeriod</t>
+  </si>
+  <si>
+    <t>Enter Journal Name</t>
+  </si>
+  <si>
+    <t>Entered Journal Name</t>
+  </si>
+  <si>
+    <t>Tab Key Enter</t>
+  </si>
+  <si>
+    <t>Tab Key Entered</t>
+  </si>
+  <si>
+    <t>SendKey</t>
+  </si>
+  <si>
+    <t>TAB</t>
+  </si>
+  <si>
+    <t>EnterJournalBatch</t>
+  </si>
+  <si>
+    <t>Enter Journal Batch</t>
+  </si>
+  <si>
+    <t>Entered Journal Batch</t>
+  </si>
+  <si>
+    <t>Enter Accounting Period</t>
+  </si>
+  <si>
+    <t>Entered Accounting Period</t>
+  </si>
+  <si>
+    <t>Clicked on EnterBatch</t>
+  </si>
+  <si>
+    <t>Verify Text</t>
+  </si>
+  <si>
+    <t>Verified Text</t>
+  </si>
+  <si>
+    <t>VerifyText</t>
+  </si>
+  <si>
+    <t>VerifySearchJournal</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'queryP:value10::content')]</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'queryP:value00::content')]</t>
+  </si>
+  <si>
+    <t>//span[label[text()=' Accounting Period']]/input</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'AT1:_ATp:t1:0:commandLink3')]</t>
+  </si>
+  <si>
+    <t>Step 69</t>
+  </si>
+  <si>
+    <t>Step 70</t>
+  </si>
+  <si>
+    <t>Click on OK</t>
+  </si>
+  <si>
+    <t>Clicked on OK</t>
+  </si>
+  <si>
+    <t>//button[contains(@id,'userResponsePopupDialogButtonOk')]</t>
+  </si>
+  <si>
+    <t>Step 71</t>
+  </si>
+  <si>
+    <t>Exists||Step 59-Step 60||Step 61-Step 62</t>
+  </si>
+  <si>
+    <t>Enter Account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entered Account </t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1116,7 @@
     <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _P_t_s_-;\-* #,##0.00\ _P_t_s_-;_-* &quot;-&quot;??\ _P_t_s_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="_-[$€-2]* #,##0.00_-;\-[$€-2]* #,##0.00_-;_-[$€-2]* &quot;-&quot;??_-"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="34">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1217,7 +1296,6 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1225,21 +1303,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="51">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1497,30 +1562,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1639,6 +1686,17 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -9487,42 +9545,23 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="45" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="45" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="50" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="47" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="50" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="45" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="45" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7828">
     <cellStyle name=" 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -17354,7 +17393,377 @@
     <cellStyle name="Warning Text 9" xfId="5939" xr:uid="{00000000-0005-0000-0000-0000921E0000}"/>
     <cellStyle name="Warning Text 9 2" xfId="7821" xr:uid="{00000000-0005-0000-0000-0000931E0000}"/>
   </cellStyles>
-  <dxfs count="163">
+  <dxfs count="200">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -19329,15 +19738,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N221"/>
+  <dimension ref="A1:N241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="25.26953125" style="2" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="15.1796875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="9.1796875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="33.81640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
@@ -19346,7 +19755,7 @@
     <col min="7" max="7" width="21.7265625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="16.81640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="12.7265625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="35.26953125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="35.26953125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="23.26953125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="13.26953125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="13.81640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
@@ -19354,3514 +19763,3981 @@
     <col min="15" max="16384" width="9.1796875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="10" customFormat="1" ht="24.5" customHeight="1">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:14" ht="19" customHeight="1">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="10" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="M2"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="4"/>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3"/>
+      <c r="M3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="4"/>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="M4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="4"/>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="5"/>
+      <c r="M5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="4"/>
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="M6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="4"/>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="M7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="4"/>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="M8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="4"/>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="M9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="4"/>
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="M10" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="4"/>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="M11" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="4"/>
+      <c r="B12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="M12" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="4"/>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="M13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="4"/>
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="M14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="4"/>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M15" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="M16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M17" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="13">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="D18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="M18" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="M20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" t="s">
+        <v>212</v>
+      </c>
+      <c r="E21" t="s">
+        <v>228</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="H21"/>
+      <c r="I21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="H26" s="4"/>
+      <c r="I26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="K28" s="5"/>
+      <c r="M28" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D29" t="s">
+        <v>332</v>
+      </c>
+      <c r="E29" t="s">
+        <v>333</v>
+      </c>
+      <c r="F29" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="12" t="s">
+      <c r="G29" t="s">
+        <v>334</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="I29"/>
+      <c r="J29" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K32" s="5"/>
+      <c r="M32" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D33" t="s">
+        <v>332</v>
+      </c>
+      <c r="E33" t="s">
+        <v>333</v>
+      </c>
+      <c r="F33" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>334</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="I33"/>
+      <c r="J33" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K36" s="5"/>
+      <c r="M36" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D37" t="s">
+        <v>332</v>
+      </c>
+      <c r="E37" t="s">
+        <v>333</v>
+      </c>
+      <c r="F37" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>334</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I37"/>
+      <c r="J37" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="H38" s="4"/>
+      <c r="I38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="H41" s="4"/>
+      <c r="I41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I43" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="K43" s="2"/>
+      <c r="M43" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="H44" s="4"/>
+      <c r="I44" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="12"/>
-    </row>
-    <row r="3" spans="1:14" ht="13">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="J44" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="K45" s="2"/>
+      <c r="M45" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="H46" s="4"/>
+      <c r="I46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F47" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G47" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="12" t="s">
+      <c r="H47" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I47" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14" t="s">
+      <c r="J47" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="M48" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A49" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M49" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="L50" s="7"/>
+      <c r="M50" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="L51" s="7"/>
+      <c r="M51" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D52" t="s">
+        <v>212</v>
+      </c>
+      <c r="E52" t="s">
+        <v>228</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="H52"/>
+      <c r="I52" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I53" t="s">
+        <v>39</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="K53" s="5"/>
+      <c r="L53"/>
+      <c r="M53" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D54" t="s">
+        <v>212</v>
+      </c>
+      <c r="E54" t="s">
+        <v>228</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="H54"/>
+      <c r="I54" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="L55" s="7"/>
+      <c r="M55" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="L56" s="7"/>
+      <c r="M56" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I57" t="s">
+        <v>39</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K57" s="5"/>
+      <c r="L57"/>
+      <c r="M57" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="L58" s="7"/>
+      <c r="M58" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="L59" s="7"/>
+      <c r="M59" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D60" t="s">
+        <v>228</v>
+      </c>
+      <c r="E60" t="s">
+        <v>228</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="H60"/>
+      <c r="I60" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="M61" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="L62" s="7"/>
+      <c r="M62" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="L63" s="7"/>
+      <c r="M63" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="K64" s="2"/>
+      <c r="M64" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="K65" s="2"/>
+      <c r="M65" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="L66" s="7"/>
+      <c r="M66" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="L67" s="7"/>
+      <c r="M67" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D68" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="N3" s="12"/>
-    </row>
-    <row r="4" spans="1:14" ht="13">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="F4" s="12" t="s">
+      <c r="E68" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G68" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="12" t="s">
+      <c r="H68" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="L68" s="7"/>
+      <c r="M68" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D69" t="s">
+        <v>212</v>
+      </c>
+      <c r="E69" t="s">
+        <v>212</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="H69"/>
+      <c r="I69" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="M70" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="L71" s="7"/>
+      <c r="M71" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="L72" s="7"/>
+      <c r="M72" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="K73" s="2"/>
+      <c r="M73" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="K74" s="2"/>
+      <c r="M74" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D75" t="s">
+        <v>212</v>
+      </c>
+      <c r="E75" t="s">
+        <v>212</v>
+      </c>
+      <c r="F75" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="H75"/>
+      <c r="I75" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="K75"/>
+      <c r="L75"/>
+      <c r="M75" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="L76" s="7"/>
+      <c r="M76" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="L77" s="7"/>
+      <c r="M77" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="K78" s="2"/>
+      <c r="M78" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="L79" s="7"/>
+      <c r="M79" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I80" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J80" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="N4" s="12"/>
-    </row>
-    <row r="5" spans="1:14" ht="13">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="12" t="s">
+      <c r="K80" s="2"/>
+      <c r="M80" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F81" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="12" t="s">
+      <c r="G81" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I81" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="N5" s="12"/>
-    </row>
-    <row r="6" spans="1:14" ht="13">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="12" t="s">
+      <c r="J81" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="L81" s="7"/>
+      <c r="M81" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="F82" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="12" t="s">
+      <c r="G82" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I82" s="2"/>
+      <c r="L82" s="7"/>
+      <c r="M82" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I83" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="N6" s="12"/>
-    </row>
-    <row r="7" spans="1:14" ht="13">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="12" t="s">
+      <c r="J83" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="L83" s="7"/>
+      <c r="M83" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F84" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G84" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="12" t="s">
+      <c r="H84" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I84" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J84" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="N7" s="12"/>
-    </row>
-    <row r="8" spans="1:14" ht="13">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="12" t="s">
+      <c r="K84" s="2"/>
+      <c r="M84" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F85" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G85" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="12" t="s">
+      <c r="H85" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I85" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="N8" s="12"/>
-    </row>
-    <row r="9" spans="1:14" ht="13">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="12" t="s">
+      <c r="J85" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="K85" s="2"/>
+      <c r="M85" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G86" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="12" t="s">
+      <c r="H86" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I86" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J86" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="N9" s="12"/>
-    </row>
-    <row r="10" spans="1:14" ht="13">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="F10" s="12" t="s">
+      <c r="K86" s="2"/>
+      <c r="M86" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F87" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G87" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="I10" s="12" t="s">
+      <c r="H87" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I87" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="N10" s="12"/>
-    </row>
-    <row r="11" spans="1:14" ht="13">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="F11" s="12" t="s">
+      <c r="J87" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="K87" s="2"/>
+      <c r="M87" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F88" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G88" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="N11" s="12"/>
-    </row>
-    <row r="12" spans="1:14" ht="13">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="N12" s="12"/>
-    </row>
-    <row r="13" spans="1:14" ht="13">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="N13" s="12"/>
-    </row>
-    <row r="14" spans="1:14" ht="13">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="N14" s="12"/>
-    </row>
-    <row r="15" spans="1:14" ht="13">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="N15" s="12"/>
-    </row>
-    <row r="16" spans="1:14" ht="13">
-      <c r="A16" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J16" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="K16" s="13"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="N16" s="12"/>
-    </row>
-    <row r="17" spans="1:14" ht="13">
-      <c r="A17" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="N17" s="12"/>
-    </row>
-    <row r="18" spans="1:14" ht="13">
-      <c r="A18" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J18" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="K18" s="13"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="N18" s="12"/>
-    </row>
-    <row r="19" spans="1:14" ht="13">
-      <c r="A19" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="I19" s="13"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="N19" s="12"/>
-    </row>
-    <row r="20" spans="1:14" ht="13">
-      <c r="A20" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J20" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="K20" s="13"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="N20" s="12"/>
-    </row>
-    <row r="21" spans="1:14" ht="13">
-      <c r="A21" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>332</v>
-      </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J21" s="16" t="s">
-        <v>322</v>
-      </c>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="N21" s="12"/>
-    </row>
-    <row r="22" spans="1:14" ht="13">
-      <c r="A22" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J22" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="K22" s="13"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="N22" s="12"/>
-    </row>
-    <row r="23" spans="1:14" ht="13">
-      <c r="A23" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="I23" s="13"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="N23" s="12"/>
-    </row>
-    <row r="24" spans="1:14" ht="13">
-      <c r="A24" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="K24" s="13"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="N24" s="12"/>
-    </row>
-    <row r="25" spans="1:14" ht="13">
-      <c r="A25" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J25" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="K25" s="13"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="N25" s="12"/>
-    </row>
-    <row r="26" spans="1:14" ht="13">
-      <c r="A26" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="K26" s="13"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="N26" s="12"/>
-    </row>
-    <row r="27" spans="1:14" ht="13">
-      <c r="A27" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="I27" s="13"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="N27" s="12"/>
-    </row>
-    <row r="28" spans="1:14" ht="13">
-      <c r="A28" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="N28" s="12"/>
-    </row>
-    <row r="29" spans="1:14" ht="13">
-      <c r="A29" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="I29" s="12" t="s">
+      <c r="H88" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I88" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="N29" s="12"/>
-    </row>
-    <row r="30" spans="1:14" ht="12" customHeight="1">
-      <c r="A30" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="I30" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J30" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="K30" s="13"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="N30" s="12"/>
-    </row>
-    <row r="31" spans="1:14" ht="13">
-      <c r="A31" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="I31" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J31" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="K31" s="13"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="N31" s="12"/>
-    </row>
-    <row r="32" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A32" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="I32" s="13"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="N32" s="12"/>
-    </row>
-    <row r="33" spans="1:14" ht="13">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H33" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="I33" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J33" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="K33" s="13"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="N33" s="12"/>
-    </row>
-    <row r="34" spans="1:14" ht="13">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="I34" s="13"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="N34" s="12"/>
-    </row>
-    <row r="35" spans="1:14" ht="13">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="G35" s="14" t="s">
-        <v>332</v>
-      </c>
-      <c r="H35" s="14"/>
-      <c r="I35" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J35" s="20" t="s">
-        <v>321</v>
-      </c>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="N35" s="12"/>
-    </row>
-    <row r="36" spans="1:14" ht="13">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="E36" s="12" t="s">
+      <c r="J88" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K88" s="2"/>
+      <c r="M88" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G89" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="F36" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="I36" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="J36" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="K36" s="13"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="N36" s="12"/>
-    </row>
-    <row r="37" spans="1:14" ht="13">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="G37" s="14" t="s">
-        <v>332</v>
-      </c>
-      <c r="H37" s="14"/>
-      <c r="I37" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J37" s="16" t="s">
-        <v>322</v>
-      </c>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="N37" s="12"/>
-    </row>
-    <row r="38" spans="1:14" ht="13">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="I38" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J38" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="K38" s="13"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="N38" s="12"/>
-    </row>
-    <row r="39" spans="1:14" ht="13">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="I39" s="13"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="N39" s="12"/>
-    </row>
-    <row r="40" spans="1:14" ht="13">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="I40" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="J40" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="K40" s="13"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="N40" s="12"/>
-    </row>
-    <row r="41" spans="1:14" ht="13">
-      <c r="A41" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="I41" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J41" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="K41" s="13"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="N41" s="12"/>
-    </row>
-    <row r="42" spans="1:14" ht="13">
-      <c r="A42" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="I42" s="13"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="N42" s="12"/>
-    </row>
-    <row r="43" spans="1:14" ht="13">
-      <c r="A43" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="F43" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="G43" s="14" t="s">
-        <v>332</v>
-      </c>
-      <c r="H43" s="14"/>
-      <c r="I43" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J43" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="N43" s="12"/>
-    </row>
-    <row r="44" spans="1:14" ht="13">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="H44" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="I44" s="13"/>
-      <c r="J44" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="K44" s="13"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="N44" s="12"/>
-    </row>
-    <row r="45" spans="1:14" ht="13">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H45" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="I45" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J45" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="K45" s="13"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="N45" s="12"/>
-    </row>
-    <row r="46" spans="1:14" ht="13">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H46" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="I46" s="13"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="N46" s="12"/>
-    </row>
-    <row r="47" spans="1:14" ht="13">
-      <c r="A47" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J47" s="20" t="s">
-        <v>321</v>
-      </c>
-      <c r="K47" s="12"/>
-      <c r="L47" s="12"/>
-      <c r="M47" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="N47" s="12"/>
-    </row>
-    <row r="48" spans="1:14" ht="13">
-      <c r="A48" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J48" s="20" t="s">
-        <v>321</v>
-      </c>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="N48" s="12"/>
-    </row>
-    <row r="49" spans="1:14" ht="13">
-      <c r="A49" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H49" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="I49" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J49" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="K49" s="13"/>
-      <c r="L49" s="19"/>
-      <c r="M49" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="N49" s="12"/>
-    </row>
-    <row r="50" spans="1:14" ht="13">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H50" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="I50" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J50" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="K50" s="13"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="N50" s="12"/>
-    </row>
-    <row r="51" spans="1:14" ht="13">
-      <c r="A51" s="12"/>
-      <c r="B51" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G51" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H51" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="I51" s="13"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="13"/>
-      <c r="L51" s="19"/>
-      <c r="M51" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="N51" s="12"/>
-    </row>
-    <row r="52" spans="1:14" ht="13">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="F52" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="G52" s="14" t="s">
-        <v>332</v>
-      </c>
-      <c r="H52" s="14"/>
-      <c r="I52" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J52" s="16" t="s">
-        <v>322</v>
-      </c>
-      <c r="K52" s="14"/>
-      <c r="L52" s="14"/>
-      <c r="M52" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="N52" s="12"/>
-    </row>
-    <row r="53" spans="1:14" ht="13">
-      <c r="A53" s="12"/>
-      <c r="B53" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="F53" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G53" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="H53" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="I53" s="13"/>
-      <c r="J53" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="K53" s="13"/>
-      <c r="L53" s="12"/>
-      <c r="M53" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="N53" s="12"/>
-    </row>
-    <row r="54" spans="1:14" ht="13">
-      <c r="A54" s="12"/>
-      <c r="B54" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F54" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G54" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H54" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="I54" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J54" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="K54" s="13"/>
-      <c r="L54" s="19"/>
-      <c r="M54" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="N54" s="12"/>
-    </row>
-    <row r="55" spans="1:14" ht="13">
-      <c r="A55" s="12"/>
-      <c r="B55" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="F55" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G55" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H55" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="I55" s="13"/>
-      <c r="J55" s="18"/>
-      <c r="K55" s="13"/>
-      <c r="L55" s="19"/>
-      <c r="M55" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="N55" s="12"/>
-    </row>
-    <row r="56" spans="1:14" ht="13">
-      <c r="A56" s="12"/>
-      <c r="B56" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="F56" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="G56" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J56" s="20" t="s">
-        <v>321</v>
-      </c>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
-      <c r="M56" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="N56" s="12"/>
-    </row>
-    <row r="57" spans="1:14" ht="13">
-      <c r="A57" s="12"/>
-      <c r="B57" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="F57" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="G57" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J57" s="20" t="s">
-        <v>321</v>
-      </c>
-      <c r="K57" s="12"/>
-      <c r="L57" s="12"/>
-      <c r="M57" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="N57" s="12"/>
-    </row>
-    <row r="58" spans="1:14" ht="13">
-      <c r="A58" s="12"/>
-      <c r="B58" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="D58" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="E58" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="F58" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="G58" s="14" t="s">
-        <v>332</v>
-      </c>
-      <c r="H58" s="14"/>
-      <c r="I58" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J58" s="16" t="s">
-        <v>322</v>
-      </c>
-      <c r="K58" s="14"/>
-      <c r="L58" s="14"/>
-      <c r="M58" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="N58" s="12"/>
-    </row>
-    <row r="59" spans="1:14" ht="13">
-      <c r="A59" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="E59" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F59" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G59" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H59" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="I59" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J59" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="K59" s="13"/>
-      <c r="L59" s="19"/>
-      <c r="M59" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="N59" s="12"/>
-    </row>
-    <row r="60" spans="1:14" ht="13">
-      <c r="A60" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E60" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="F60" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G60" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H60" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="I60" s="12" t="s">
+      <c r="I89" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J60" s="12" t="s">
+      <c r="J89" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="N60" s="12"/>
-    </row>
-    <row r="61" spans="1:14" ht="13">
-      <c r="A61" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F61" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G61" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H61" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="I61" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J61" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="K61" s="13"/>
-      <c r="L61" s="19"/>
-      <c r="M61" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="N61" s="12"/>
-    </row>
-    <row r="62" spans="1:14" ht="13">
-      <c r="A62" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="E62" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="F62" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G62" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H62" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="13"/>
-      <c r="L62" s="19"/>
-      <c r="M62" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="N62" s="12"/>
-    </row>
-    <row r="63" spans="1:14" ht="13">
-      <c r="A63" s="12"/>
-      <c r="B63" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="E63" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F63" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G63" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H63" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I63" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J63" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="K63" s="13"/>
-      <c r="L63" s="19"/>
-      <c r="M63" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="N63" s="12"/>
-    </row>
-    <row r="64" spans="1:14" ht="13">
-      <c r="A64" s="12"/>
-      <c r="B64" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E64" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="F64" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G64" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H64" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I64" s="12" t="s">
+      <c r="K89" s="2"/>
+      <c r="M89" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J64" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K64" s="12"/>
-      <c r="L64" s="12"/>
-      <c r="M64" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="N64" s="12"/>
-    </row>
-    <row r="65" spans="1:14" ht="13">
-      <c r="A65" s="12"/>
-      <c r="B65" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E65" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="F65" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G65" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H65" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="I65" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J65" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="K65" s="12"/>
-      <c r="L65" s="12"/>
-      <c r="M65" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N65" s="12"/>
-    </row>
-    <row r="66" spans="1:14" ht="13">
-      <c r="A66" s="12"/>
-      <c r="B66" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="E66" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="F66" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G66" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H66" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="I66" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="J66" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K66" s="12"/>
-      <c r="L66" s="12"/>
-      <c r="M66" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N66" s="12"/>
-    </row>
-    <row r="67" spans="1:14" ht="13">
-      <c r="A67" s="12"/>
-      <c r="B67" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="E67" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="F67" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G67" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H67" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="I67" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J67" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="K67" s="12"/>
-      <c r="L67" s="12"/>
-      <c r="M67" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N67" s="12"/>
-    </row>
-    <row r="68" spans="1:14" ht="13">
-      <c r="A68" s="12"/>
-      <c r="B68" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="E68" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="F68" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G68" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H68" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="I68" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="J68" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="K68" s="12"/>
-      <c r="L68" s="12"/>
-      <c r="M68" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N68" s="12"/>
-    </row>
-    <row r="69" spans="1:14" ht="13">
-      <c r="A69" s="12"/>
-      <c r="B69" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E69" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="F69" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="H69" s="12"/>
-      <c r="I69" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="J69" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K69" s="12"/>
-      <c r="L69" s="12"/>
-      <c r="M69" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N69" s="12"/>
-    </row>
-    <row r="70" spans="1:14">
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
-    </row>
-    <row r="71" spans="1:14">
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
-    </row>
-    <row r="72" spans="1:14">
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
-    </row>
-    <row r="73" spans="1:14">
-      <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
-      <c r="K73" s="2"/>
-    </row>
-    <row r="74" spans="1:14">
-      <c r="I74" s="2"/>
-      <c r="J74" s="2"/>
-      <c r="K74" s="2"/>
-    </row>
-    <row r="75" spans="1:14">
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
-      <c r="K75" s="2"/>
-    </row>
-    <row r="76" spans="1:14">
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
-    </row>
-    <row r="77" spans="1:14">
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
-    </row>
-    <row r="78" spans="1:14">
-      <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
-      <c r="K78" s="2"/>
-    </row>
-    <row r="79" spans="1:14">
-      <c r="I79" s="2"/>
-      <c r="J79" s="6"/>
-      <c r="K79" s="2"/>
-    </row>
-    <row r="80" spans="1:14">
-      <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="9:11">
-      <c r="I81" s="2"/>
-      <c r="J81" s="2"/>
-      <c r="K81" s="2"/>
-    </row>
-    <row r="82" spans="9:11">
-      <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
-      <c r="K82" s="2"/>
-    </row>
-    <row r="83" spans="9:11">
-      <c r="I83" s="2"/>
-      <c r="J83" s="2"/>
-      <c r="K83" s="2"/>
-    </row>
-    <row r="84" spans="9:11">
-      <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
-      <c r="K84" s="2"/>
-    </row>
-    <row r="85" spans="9:11">
-      <c r="I85" s="2"/>
-      <c r="J85" s="2"/>
-      <c r="K85" s="2"/>
-    </row>
-    <row r="86" spans="9:11">
-      <c r="I86" s="2"/>
-      <c r="J86" s="2"/>
-      <c r="K86" s="2"/>
-    </row>
-    <row r="87" spans="9:11">
-      <c r="I87" s="2"/>
-      <c r="J87" s="2"/>
-      <c r="K87" s="2"/>
-    </row>
-    <row r="88" spans="9:11">
-      <c r="I88" s="2"/>
-      <c r="J88" s="2"/>
-      <c r="K88" s="2"/>
-    </row>
-    <row r="89" spans="9:11">
-      <c r="I89" s="2"/>
-      <c r="J89" s="2"/>
-      <c r="K89" s="2"/>
-    </row>
-    <row r="90" spans="9:11">
+    </row>
+    <row r="90" spans="1:13">
       <c r="I90" s="2"/>
-      <c r="J90" s="2"/>
       <c r="K90" s="2"/>
     </row>
-    <row r="91" spans="9:11">
+    <row r="91" spans="1:13">
       <c r="I91" s="2"/>
-      <c r="J91" s="2"/>
       <c r="K91" s="2"/>
     </row>
-    <row r="92" spans="9:11">
+    <row r="92" spans="1:13">
       <c r="I92" s="2"/>
-      <c r="J92" s="2"/>
       <c r="K92" s="2"/>
     </row>
-    <row r="93" spans="9:11">
+    <row r="93" spans="1:13">
       <c r="I93" s="2"/>
-      <c r="J93" s="2"/>
       <c r="K93" s="2"/>
     </row>
-    <row r="94" spans="9:11">
+    <row r="94" spans="1:13">
       <c r="I94" s="2"/>
-      <c r="J94" s="2"/>
       <c r="K94" s="2"/>
     </row>
-    <row r="95" spans="9:11">
+    <row r="95" spans="1:13">
       <c r="I95" s="2"/>
-      <c r="J95" s="2"/>
       <c r="K95" s="2"/>
     </row>
-    <row r="96" spans="9:11">
+    <row r="96" spans="1:13">
       <c r="I96" s="2"/>
-      <c r="J96" s="2"/>
       <c r="K96" s="2"/>
     </row>
     <row r="97" spans="9:11">
       <c r="I97" s="2"/>
-      <c r="J97" s="2"/>
       <c r="K97" s="2"/>
     </row>
     <row r="98" spans="9:11">
       <c r="I98" s="2"/>
-      <c r="J98" s="2"/>
       <c r="K98" s="2"/>
     </row>
     <row r="99" spans="9:11">
       <c r="I99" s="2"/>
-      <c r="J99" s="2"/>
       <c r="K99" s="2"/>
     </row>
     <row r="100" spans="9:11">
       <c r="I100" s="2"/>
-      <c r="J100" s="2"/>
       <c r="K100" s="2"/>
     </row>
     <row r="101" spans="9:11">
       <c r="I101" s="2"/>
-      <c r="J101" s="2"/>
       <c r="K101" s="2"/>
     </row>
     <row r="102" spans="9:11">
       <c r="I102" s="2"/>
-      <c r="J102" s="2"/>
       <c r="K102" s="2"/>
     </row>
     <row r="103" spans="9:11">
       <c r="I103" s="2"/>
-      <c r="J103" s="2"/>
       <c r="K103" s="2"/>
     </row>
     <row r="104" spans="9:11">
       <c r="I104" s="2"/>
-      <c r="J104" s="2"/>
       <c r="K104" s="2"/>
     </row>
     <row r="105" spans="9:11">
       <c r="I105" s="2"/>
-      <c r="J105" s="2"/>
       <c r="K105" s="2"/>
     </row>
     <row r="106" spans="9:11">
       <c r="I106" s="2"/>
-      <c r="J106" s="2"/>
       <c r="K106" s="2"/>
     </row>
     <row r="107" spans="9:11">
       <c r="I107" s="2"/>
-      <c r="J107" s="2"/>
       <c r="K107" s="2"/>
     </row>
     <row r="108" spans="9:11">
       <c r="I108" s="2"/>
-      <c r="J108" s="2"/>
       <c r="K108" s="2"/>
     </row>
     <row r="109" spans="9:11">
       <c r="I109" s="2"/>
-      <c r="J109" s="2"/>
       <c r="K109" s="2"/>
     </row>
     <row r="110" spans="9:11">
       <c r="I110" s="2"/>
-      <c r="J110" s="2"/>
       <c r="K110" s="2"/>
     </row>
     <row r="111" spans="9:11">
       <c r="I111" s="2"/>
-      <c r="J111" s="2"/>
       <c r="K111" s="2"/>
     </row>
     <row r="112" spans="9:11">
       <c r="I112" s="2"/>
-      <c r="J112" s="2"/>
       <c r="K112" s="2"/>
     </row>
     <row r="113" spans="9:11">
       <c r="I113" s="2"/>
-      <c r="J113" s="2"/>
       <c r="K113" s="2"/>
     </row>
     <row r="114" spans="9:11">
       <c r="I114" s="2"/>
-      <c r="J114" s="2"/>
       <c r="K114" s="2"/>
     </row>
     <row r="115" spans="9:11">
       <c r="I115" s="2"/>
-      <c r="J115" s="2"/>
       <c r="K115" s="2"/>
     </row>
     <row r="116" spans="9:11">
       <c r="I116" s="2"/>
-      <c r="J116" s="2"/>
       <c r="K116" s="2"/>
     </row>
     <row r="117" spans="9:11">
       <c r="I117" s="2"/>
-      <c r="J117" s="2"/>
       <c r="K117" s="2"/>
     </row>
     <row r="118" spans="9:11">
       <c r="I118" s="2"/>
-      <c r="J118" s="2"/>
       <c r="K118" s="2"/>
     </row>
     <row r="119" spans="9:11">
       <c r="I119" s="2"/>
-      <c r="J119" s="2"/>
       <c r="K119" s="2"/>
     </row>
     <row r="120" spans="9:11">
       <c r="I120" s="2"/>
-      <c r="J120" s="2"/>
       <c r="K120" s="2"/>
     </row>
     <row r="121" spans="9:11">
       <c r="I121" s="2"/>
-      <c r="J121" s="2"/>
       <c r="K121" s="2"/>
     </row>
     <row r="122" spans="9:11">
       <c r="I122" s="2"/>
-      <c r="J122" s="2"/>
       <c r="K122" s="2"/>
     </row>
     <row r="123" spans="9:11">
       <c r="I123" s="2"/>
-      <c r="J123" s="2"/>
       <c r="K123" s="2"/>
     </row>
     <row r="124" spans="9:11">
       <c r="I124" s="2"/>
-      <c r="J124" s="2"/>
       <c r="K124" s="2"/>
     </row>
     <row r="125" spans="9:11">
       <c r="I125" s="2"/>
-      <c r="J125" s="2"/>
       <c r="K125" s="2"/>
     </row>
     <row r="126" spans="9:11">
       <c r="I126" s="2"/>
-      <c r="J126" s="2"/>
       <c r="K126" s="2"/>
     </row>
     <row r="127" spans="9:11">
       <c r="I127" s="2"/>
-      <c r="J127" s="2"/>
       <c r="K127" s="2"/>
     </row>
     <row r="128" spans="9:11">
       <c r="I128" s="2"/>
-      <c r="J128" s="2"/>
       <c r="K128" s="2"/>
     </row>
     <row r="129" spans="9:11">
       <c r="I129" s="2"/>
-      <c r="J129" s="2"/>
       <c r="K129" s="2"/>
     </row>
     <row r="130" spans="9:11">
       <c r="I130" s="2"/>
-      <c r="J130" s="2"/>
       <c r="K130" s="2"/>
     </row>
     <row r="131" spans="9:11">
       <c r="I131" s="2"/>
-      <c r="J131" s="2"/>
       <c r="K131" s="2"/>
     </row>
     <row r="132" spans="9:11">
       <c r="I132" s="2"/>
-      <c r="J132" s="2"/>
       <c r="K132" s="2"/>
     </row>
     <row r="133" spans="9:11">
       <c r="I133" s="2"/>
-      <c r="J133" s="2"/>
       <c r="K133" s="2"/>
     </row>
     <row r="134" spans="9:11">
       <c r="I134" s="2"/>
-      <c r="J134" s="2"/>
       <c r="K134" s="2"/>
     </row>
     <row r="135" spans="9:11">
       <c r="I135" s="2"/>
-      <c r="J135" s="2"/>
       <c r="K135" s="2"/>
     </row>
     <row r="136" spans="9:11">
       <c r="I136" s="2"/>
-      <c r="J136" s="2"/>
       <c r="K136" s="2"/>
     </row>
     <row r="137" spans="9:11">
       <c r="I137" s="2"/>
-      <c r="J137" s="2"/>
       <c r="K137" s="2"/>
     </row>
     <row r="138" spans="9:11">
       <c r="I138" s="2"/>
-      <c r="J138" s="2"/>
       <c r="K138" s="2"/>
     </row>
     <row r="139" spans="9:11">
       <c r="I139" s="2"/>
-      <c r="J139" s="2"/>
       <c r="K139" s="2"/>
     </row>
     <row r="140" spans="9:11">
       <c r="I140" s="2"/>
-      <c r="J140" s="2"/>
       <c r="K140" s="2"/>
     </row>
     <row r="141" spans="9:11">
       <c r="I141" s="2"/>
-      <c r="J141" s="2"/>
       <c r="K141" s="2"/>
     </row>
     <row r="142" spans="9:11">
       <c r="I142" s="2"/>
-      <c r="J142" s="2"/>
       <c r="K142" s="2"/>
     </row>
     <row r="143" spans="9:11">
       <c r="I143" s="2"/>
-      <c r="J143" s="2"/>
       <c r="K143" s="2"/>
     </row>
     <row r="144" spans="9:11">
       <c r="I144" s="2"/>
-      <c r="J144" s="2"/>
       <c r="K144" s="2"/>
     </row>
     <row r="145" spans="9:11">
       <c r="I145" s="2"/>
-      <c r="J145" s="2"/>
       <c r="K145" s="2"/>
     </row>
     <row r="146" spans="9:11">
       <c r="I146" s="2"/>
-      <c r="J146" s="2"/>
       <c r="K146" s="2"/>
     </row>
     <row r="147" spans="9:11">
       <c r="I147" s="2"/>
-      <c r="J147" s="2"/>
       <c r="K147" s="2"/>
     </row>
     <row r="148" spans="9:11">
       <c r="I148" s="2"/>
-      <c r="J148" s="2"/>
       <c r="K148" s="2"/>
     </row>
     <row r="149" spans="9:11">
       <c r="I149" s="2"/>
-      <c r="J149" s="2"/>
       <c r="K149" s="2"/>
     </row>
     <row r="150" spans="9:11">
       <c r="I150" s="2"/>
-      <c r="J150" s="2"/>
       <c r="K150" s="2"/>
     </row>
     <row r="151" spans="9:11">
       <c r="I151" s="2"/>
-      <c r="J151" s="2"/>
       <c r="K151" s="2"/>
     </row>
     <row r="152" spans="9:11">
       <c r="I152" s="2"/>
-      <c r="J152" s="2"/>
       <c r="K152" s="2"/>
     </row>
     <row r="153" spans="9:11">
       <c r="I153" s="2"/>
-      <c r="J153" s="2"/>
       <c r="K153" s="2"/>
     </row>
     <row r="154" spans="9:11">
       <c r="I154" s="2"/>
-      <c r="J154" s="2"/>
       <c r="K154" s="2"/>
     </row>
     <row r="155" spans="9:11">
       <c r="I155" s="2"/>
-      <c r="J155" s="2"/>
       <c r="K155" s="2"/>
     </row>
     <row r="156" spans="9:11">
       <c r="I156" s="2"/>
-      <c r="J156" s="2"/>
       <c r="K156" s="2"/>
     </row>
     <row r="157" spans="9:11">
       <c r="I157" s="2"/>
-      <c r="J157" s="2"/>
       <c r="K157" s="2"/>
     </row>
     <row r="158" spans="9:11">
       <c r="I158" s="2"/>
-      <c r="J158" s="2"/>
       <c r="K158" s="2"/>
     </row>
     <row r="159" spans="9:11">
       <c r="I159" s="2"/>
-      <c r="J159" s="2"/>
       <c r="K159" s="2"/>
     </row>
     <row r="160" spans="9:11">
       <c r="I160" s="2"/>
-      <c r="J160" s="2"/>
       <c r="K160" s="2"/>
     </row>
     <row r="161" spans="9:11">
       <c r="I161" s="2"/>
-      <c r="J161" s="2"/>
       <c r="K161" s="2"/>
     </row>
     <row r="162" spans="9:11">
       <c r="I162" s="2"/>
-      <c r="J162" s="2"/>
       <c r="K162" s="2"/>
     </row>
     <row r="163" spans="9:11">
       <c r="I163" s="2"/>
-      <c r="J163" s="2"/>
       <c r="K163" s="2"/>
     </row>
     <row r="164" spans="9:11">
       <c r="I164" s="2"/>
-      <c r="J164" s="2"/>
       <c r="K164" s="2"/>
     </row>
     <row r="165" spans="9:11">
       <c r="I165" s="2"/>
-      <c r="J165" s="2"/>
       <c r="K165" s="2"/>
     </row>
     <row r="166" spans="9:11">
       <c r="I166" s="2"/>
-      <c r="J166" s="2"/>
       <c r="K166" s="2"/>
     </row>
     <row r="167" spans="9:11">
       <c r="I167" s="2"/>
-      <c r="J167" s="2"/>
       <c r="K167" s="2"/>
     </row>
     <row r="168" spans="9:11">
       <c r="I168" s="2"/>
-      <c r="J168" s="2"/>
       <c r="K168" s="2"/>
     </row>
     <row r="169" spans="9:11">
       <c r="I169" s="2"/>
-      <c r="J169" s="2"/>
       <c r="K169" s="2"/>
     </row>
     <row r="170" spans="9:11">
       <c r="I170" s="2"/>
-      <c r="J170" s="2"/>
       <c r="K170" s="2"/>
     </row>
     <row r="171" spans="9:11">
       <c r="I171" s="2"/>
-      <c r="J171" s="2"/>
       <c r="K171" s="2"/>
     </row>
     <row r="172" spans="9:11">
       <c r="I172" s="2"/>
-      <c r="J172" s="2"/>
       <c r="K172" s="2"/>
     </row>
     <row r="173" spans="9:11">
       <c r="I173" s="2"/>
-      <c r="J173" s="2"/>
       <c r="K173" s="2"/>
     </row>
     <row r="174" spans="9:11">
       <c r="I174" s="2"/>
-      <c r="J174" s="2"/>
       <c r="K174" s="2"/>
     </row>
     <row r="175" spans="9:11">
       <c r="I175" s="2"/>
-      <c r="J175" s="2"/>
       <c r="K175" s="2"/>
     </row>
     <row r="176" spans="9:11">
       <c r="I176" s="2"/>
-      <c r="J176" s="2"/>
       <c r="K176" s="2"/>
     </row>
     <row r="177" spans="9:11">
       <c r="I177" s="2"/>
-      <c r="J177" s="2"/>
       <c r="K177" s="2"/>
     </row>
     <row r="178" spans="9:11">
       <c r="I178" s="2"/>
-      <c r="J178" s="2"/>
       <c r="K178" s="2"/>
     </row>
     <row r="179" spans="9:11">
       <c r="I179" s="2"/>
-      <c r="J179" s="2"/>
       <c r="K179" s="2"/>
     </row>
     <row r="180" spans="9:11">
       <c r="I180" s="2"/>
-      <c r="J180" s="2"/>
       <c r="K180" s="2"/>
     </row>
     <row r="181" spans="9:11">
       <c r="I181" s="2"/>
-      <c r="J181" s="2"/>
       <c r="K181" s="2"/>
     </row>
     <row r="182" spans="9:11">
       <c r="I182" s="2"/>
-      <c r="J182" s="2"/>
       <c r="K182" s="2"/>
     </row>
     <row r="183" spans="9:11">
       <c r="I183" s="2"/>
-      <c r="J183" s="2"/>
       <c r="K183" s="2"/>
     </row>
     <row r="184" spans="9:11">
       <c r="I184" s="2"/>
-      <c r="J184" s="2"/>
       <c r="K184" s="2"/>
     </row>
     <row r="185" spans="9:11">
       <c r="I185" s="2"/>
-      <c r="J185" s="2"/>
       <c r="K185" s="2"/>
     </row>
     <row r="186" spans="9:11">
       <c r="I186" s="2"/>
-      <c r="J186" s="2"/>
       <c r="K186" s="2"/>
     </row>
     <row r="187" spans="9:11">
       <c r="I187" s="2"/>
-      <c r="J187" s="2"/>
       <c r="K187" s="2"/>
     </row>
     <row r="188" spans="9:11">
       <c r="I188" s="2"/>
-      <c r="J188" s="2"/>
       <c r="K188" s="2"/>
     </row>
     <row r="189" spans="9:11">
       <c r="I189" s="2"/>
-      <c r="J189" s="2"/>
       <c r="K189" s="2"/>
     </row>
     <row r="190" spans="9:11">
       <c r="I190" s="2"/>
-      <c r="J190" s="2"/>
       <c r="K190" s="2"/>
     </row>
     <row r="191" spans="9:11">
       <c r="I191" s="2"/>
-      <c r="J191" s="2"/>
       <c r="K191" s="2"/>
     </row>
     <row r="192" spans="9:11">
       <c r="I192" s="2"/>
-      <c r="J192" s="2"/>
       <c r="K192" s="2"/>
     </row>
     <row r="193" spans="9:11">
       <c r="I193" s="2"/>
-      <c r="J193" s="2"/>
       <c r="K193" s="2"/>
     </row>
     <row r="194" spans="9:11">
       <c r="I194" s="2"/>
-      <c r="J194" s="2"/>
       <c r="K194" s="2"/>
     </row>
     <row r="195" spans="9:11">
       <c r="I195" s="2"/>
-      <c r="J195" s="2"/>
       <c r="K195" s="2"/>
     </row>
     <row r="196" spans="9:11">
       <c r="I196" s="2"/>
-      <c r="J196" s="2"/>
       <c r="K196" s="2"/>
     </row>
     <row r="197" spans="9:11">
       <c r="I197" s="2"/>
-      <c r="J197" s="2"/>
       <c r="K197" s="2"/>
     </row>
     <row r="198" spans="9:11">
       <c r="I198" s="2"/>
-      <c r="J198" s="2"/>
       <c r="K198" s="2"/>
     </row>
     <row r="199" spans="9:11">
       <c r="I199" s="2"/>
-      <c r="J199" s="2"/>
       <c r="K199" s="2"/>
     </row>
     <row r="200" spans="9:11">
       <c r="I200" s="2"/>
-      <c r="J200" s="2"/>
       <c r="K200" s="2"/>
     </row>
     <row r="201" spans="9:11">
       <c r="I201" s="2"/>
-      <c r="J201" s="2"/>
       <c r="K201" s="2"/>
     </row>
     <row r="202" spans="9:11">
       <c r="I202" s="2"/>
-      <c r="J202" s="2"/>
       <c r="K202" s="2"/>
     </row>
     <row r="203" spans="9:11">
       <c r="I203" s="2"/>
-      <c r="J203" s="2"/>
       <c r="K203" s="2"/>
     </row>
     <row r="204" spans="9:11">
       <c r="I204" s="2"/>
-      <c r="J204" s="2"/>
       <c r="K204" s="2"/>
     </row>
     <row r="205" spans="9:11">
       <c r="I205" s="2"/>
-      <c r="J205" s="2"/>
       <c r="K205" s="2"/>
     </row>
     <row r="206" spans="9:11">
       <c r="I206" s="2"/>
-      <c r="J206" s="2"/>
       <c r="K206" s="2"/>
     </row>
     <row r="207" spans="9:11">
       <c r="I207" s="2"/>
-      <c r="J207" s="2"/>
       <c r="K207" s="2"/>
     </row>
     <row r="208" spans="9:11">
       <c r="I208" s="2"/>
-      <c r="J208" s="2"/>
       <c r="K208" s="2"/>
     </row>
-    <row r="209" spans="1:11">
+    <row r="209" spans="9:11">
       <c r="I209" s="2"/>
-      <c r="J209" s="2"/>
       <c r="K209" s="2"/>
     </row>
-    <row r="210" spans="1:11">
+    <row r="210" spans="9:11">
       <c r="I210" s="2"/>
-      <c r="J210" s="2"/>
       <c r="K210" s="2"/>
     </row>
-    <row r="211" spans="1:11">
+    <row r="211" spans="9:11">
       <c r="I211" s="2"/>
-      <c r="J211" s="2"/>
       <c r="K211" s="2"/>
     </row>
-    <row r="212" spans="1:11">
+    <row r="212" spans="9:11">
       <c r="I212" s="2"/>
-      <c r="J212" s="2"/>
       <c r="K212" s="2"/>
     </row>
-    <row r="213" spans="1:11">
+    <row r="213" spans="9:11">
       <c r="I213" s="2"/>
-      <c r="J213" s="2"/>
       <c r="K213" s="2"/>
     </row>
-    <row r="214" spans="1:11">
+    <row r="214" spans="9:11">
       <c r="I214" s="2"/>
-      <c r="J214" s="2"/>
       <c r="K214" s="2"/>
     </row>
-    <row r="215" spans="1:11">
+    <row r="215" spans="9:11">
       <c r="I215" s="2"/>
-      <c r="J215" s="2"/>
       <c r="K215" s="2"/>
     </row>
-    <row r="216" spans="1:11">
+    <row r="216" spans="9:11">
       <c r="I216" s="2"/>
-      <c r="J216" s="2"/>
       <c r="K216" s="2"/>
     </row>
-    <row r="217" spans="1:11">
+    <row r="217" spans="9:11">
       <c r="I217" s="2"/>
-      <c r="J217" s="2"/>
       <c r="K217" s="2"/>
     </row>
-    <row r="218" spans="1:11">
+    <row r="218" spans="9:11">
       <c r="I218" s="2"/>
-      <c r="J218" s="2"/>
       <c r="K218" s="2"/>
     </row>
-    <row r="219" spans="1:11">
+    <row r="219" spans="9:11">
       <c r="I219" s="2"/>
-      <c r="J219" s="2"/>
       <c r="K219" s="2"/>
     </row>
-    <row r="220" spans="1:11">
-      <c r="A220" s="4"/>
-      <c r="B220" s="7"/>
+    <row r="220" spans="9:11">
       <c r="I220" s="2"/>
-      <c r="J220" s="8"/>
       <c r="K220" s="2"/>
     </row>
-    <row r="221" spans="1:11">
+    <row r="221" spans="9:11">
       <c r="I221" s="2"/>
-      <c r="J221" s="2"/>
       <c r="K221" s="2"/>
+    </row>
+    <row r="222" spans="9:11">
+      <c r="I222" s="2"/>
+      <c r="K222" s="2"/>
+    </row>
+    <row r="223" spans="9:11">
+      <c r="I223" s="2"/>
+      <c r="K223" s="2"/>
+    </row>
+    <row r="224" spans="9:11">
+      <c r="I224" s="2"/>
+      <c r="K224" s="2"/>
+    </row>
+    <row r="225" spans="1:11">
+      <c r="I225" s="2"/>
+      <c r="K225" s="2"/>
+    </row>
+    <row r="226" spans="1:11">
+      <c r="I226" s="2"/>
+      <c r="K226" s="2"/>
+    </row>
+    <row r="227" spans="1:11">
+      <c r="I227" s="2"/>
+      <c r="K227" s="2"/>
+    </row>
+    <row r="228" spans="1:11">
+      <c r="I228" s="2"/>
+      <c r="K228" s="2"/>
+    </row>
+    <row r="229" spans="1:11">
+      <c r="I229" s="2"/>
+      <c r="K229" s="2"/>
+    </row>
+    <row r="230" spans="1:11">
+      <c r="I230" s="2"/>
+      <c r="K230" s="2"/>
+    </row>
+    <row r="231" spans="1:11">
+      <c r="I231" s="2"/>
+      <c r="K231" s="2"/>
+    </row>
+    <row r="232" spans="1:11">
+      <c r="I232" s="2"/>
+      <c r="K232" s="2"/>
+    </row>
+    <row r="233" spans="1:11">
+      <c r="I233" s="2"/>
+      <c r="K233" s="2"/>
+    </row>
+    <row r="234" spans="1:11">
+      <c r="I234" s="2"/>
+      <c r="K234" s="2"/>
+    </row>
+    <row r="235" spans="1:11">
+      <c r="I235" s="2"/>
+      <c r="K235" s="2"/>
+    </row>
+    <row r="236" spans="1:11">
+      <c r="I236" s="2"/>
+      <c r="K236" s="2"/>
+    </row>
+    <row r="237" spans="1:11">
+      <c r="I237" s="2"/>
+      <c r="K237" s="2"/>
+    </row>
+    <row r="238" spans="1:11">
+      <c r="I238" s="2"/>
+      <c r="K238" s="2"/>
+    </row>
+    <row r="239" spans="1:11">
+      <c r="I239" s="2"/>
+      <c r="K239" s="2"/>
+    </row>
+    <row r="240" spans="1:11">
+      <c r="A240" s="4"/>
+      <c r="B240" s="6"/>
+      <c r="I240" s="2"/>
+      <c r="K240" s="2"/>
+    </row>
+    <row r="241" spans="9:11">
+      <c r="I241" s="2"/>
+      <c r="K241" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="32" type="noConversion"/>
-  <conditionalFormatting sqref="H189:I189">
-    <cfRule type="duplicateValues" dxfId="162" priority="240"/>
+  <conditionalFormatting sqref="H209:I209">
+    <cfRule type="duplicateValues" dxfId="199" priority="285"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H189:I189">
-    <cfRule type="duplicateValues" dxfId="161" priority="241"/>
-    <cfRule type="duplicateValues" dxfId="160" priority="242"/>
+  <conditionalFormatting sqref="H209:I209">
+    <cfRule type="duplicateValues" dxfId="198" priority="286"/>
+    <cfRule type="duplicateValues" dxfId="197" priority="287"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="duplicateValues" dxfId="159" priority="238"/>
+    <cfRule type="duplicateValues" dxfId="196" priority="283"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="duplicateValues" dxfId="158" priority="239"/>
+    <cfRule type="duplicateValues" dxfId="195" priority="284"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="duplicateValues" dxfId="157" priority="237"/>
+    <cfRule type="duplicateValues" dxfId="194" priority="282"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="duplicateValues" dxfId="156" priority="232"/>
+    <cfRule type="duplicateValues" dxfId="193" priority="277"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="duplicateValues" dxfId="155" priority="233"/>
+    <cfRule type="duplicateValues" dxfId="192" priority="278"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H48">
+    <cfRule type="duplicateValues" dxfId="191" priority="273"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J48">
+    <cfRule type="duplicateValues" dxfId="190" priority="274"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50">
+    <cfRule type="duplicateValues" dxfId="189" priority="244"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J50">
+    <cfRule type="duplicateValues" dxfId="188" priority="245"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J54">
+    <cfRule type="duplicateValues" dxfId="187" priority="225"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54">
+    <cfRule type="duplicateValues" dxfId="186" priority="226"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H55">
+    <cfRule type="duplicateValues" dxfId="185" priority="223"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J55">
+    <cfRule type="duplicateValues" dxfId="184" priority="224"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H58">
+    <cfRule type="duplicateValues" dxfId="183" priority="219"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J58">
+    <cfRule type="duplicateValues" dxfId="182" priority="220"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J64">
+    <cfRule type="duplicateValues" dxfId="181" priority="215"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H64">
+    <cfRule type="duplicateValues" dxfId="180" priority="216"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H67">
+    <cfRule type="duplicateValues" dxfId="179" priority="213"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J67">
+    <cfRule type="duplicateValues" dxfId="178" priority="214"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J69">
+    <cfRule type="duplicateValues" dxfId="177" priority="211"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H69">
+    <cfRule type="duplicateValues" dxfId="176" priority="212"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14">
+    <cfRule type="duplicateValues" dxfId="175" priority="210"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H83">
+    <cfRule type="duplicateValues" dxfId="174" priority="207"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J83">
+    <cfRule type="duplicateValues" dxfId="173" priority="208"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J66">
+    <cfRule type="duplicateValues" dxfId="172" priority="204"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66">
+    <cfRule type="duplicateValues" dxfId="171" priority="201"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66">
+    <cfRule type="duplicateValues" dxfId="170" priority="202"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="203"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J62">
+    <cfRule type="duplicateValues" dxfId="168" priority="200"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H62">
+    <cfRule type="duplicateValues" dxfId="167" priority="196"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H62">
+    <cfRule type="duplicateValues" dxfId="166" priority="197"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="198"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H63">
+    <cfRule type="duplicateValues" dxfId="164" priority="193"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H63">
+    <cfRule type="duplicateValues" dxfId="163" priority="194"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="195"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J60">
+    <cfRule type="duplicateValues" dxfId="161" priority="191"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H60">
+    <cfRule type="duplicateValues" dxfId="160" priority="192"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H61">
+    <cfRule type="duplicateValues" dxfId="159" priority="187"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H61">
+    <cfRule type="duplicateValues" dxfId="158" priority="188"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="189"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J65">
+    <cfRule type="duplicateValues" dxfId="156" priority="185"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H65">
+    <cfRule type="duplicateValues" dxfId="155" priority="186"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J79">
+    <cfRule type="duplicateValues" dxfId="154" priority="180"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J81:J82">
+    <cfRule type="duplicateValues" dxfId="153" priority="166"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H81:H82">
+    <cfRule type="duplicateValues" dxfId="152" priority="162"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H81:H82">
+    <cfRule type="duplicateValues" dxfId="151" priority="163"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="164"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J73">
+    <cfRule type="duplicateValues" dxfId="149" priority="146"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H73">
+    <cfRule type="duplicateValues" dxfId="148" priority="147"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J71">
+    <cfRule type="duplicateValues" dxfId="147" priority="145"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J74">
+    <cfRule type="duplicateValues" dxfId="146" priority="134"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H74">
+    <cfRule type="duplicateValues" dxfId="145" priority="135"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H70">
+    <cfRule type="duplicateValues" dxfId="144" priority="131"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H70">
+    <cfRule type="duplicateValues" dxfId="143" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="133"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H71">
+    <cfRule type="duplicateValues" dxfId="141" priority="128"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H71">
+    <cfRule type="duplicateValues" dxfId="140" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="130"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H72">
+    <cfRule type="duplicateValues" dxfId="138" priority="125"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H72">
+    <cfRule type="duplicateValues" dxfId="137" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="127"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J52">
+    <cfRule type="duplicateValues" dxfId="135" priority="93"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52">
+    <cfRule type="duplicateValues" dxfId="134" priority="94"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J75">
+    <cfRule type="duplicateValues" dxfId="133" priority="91"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H75">
+    <cfRule type="duplicateValues" dxfId="132" priority="92"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="duplicateValues" dxfId="131" priority="87"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="duplicateValues" dxfId="130" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="89"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
+    <cfRule type="duplicateValues" dxfId="128" priority="86"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:H7">
+    <cfRule type="duplicateValues" dxfId="127" priority="90"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="duplicateValues" dxfId="126" priority="82"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3">
+    <cfRule type="duplicateValues" dxfId="125" priority="85"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="duplicateValues" dxfId="124" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="84"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="duplicateValues" dxfId="122" priority="81"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="duplicateValues" dxfId="121" priority="78"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="duplicateValues" dxfId="120" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="80"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9">
+    <cfRule type="duplicateValues" dxfId="118" priority="76"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="duplicateValues" dxfId="117" priority="75"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="duplicateValues" dxfId="116" priority="72"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="duplicateValues" dxfId="115" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="74"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="duplicateValues" dxfId="113" priority="69"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="duplicateValues" dxfId="112" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="71"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21">
+    <cfRule type="duplicateValues" dxfId="110" priority="61"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
+    <cfRule type="duplicateValues" dxfId="109" priority="62"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="duplicateValues" dxfId="108" priority="57"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="duplicateValues" dxfId="107" priority="289"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="290"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10">
+    <cfRule type="duplicateValues" dxfId="105" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="duplicateValues" dxfId="104" priority="49"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="duplicateValues" dxfId="103" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="51"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="duplicateValues" dxfId="101" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="duplicateValues" dxfId="100" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47">
+    <cfRule type="duplicateValues" dxfId="98" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29">
+    <cfRule type="duplicateValues" dxfId="97" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40">
+    <cfRule type="duplicateValues" dxfId="96" priority="41"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40">
+    <cfRule type="duplicateValues" dxfId="95" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="43"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39">
+    <cfRule type="duplicateValues" dxfId="93" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39">
+    <cfRule type="duplicateValues" dxfId="92" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="duplicateValues" dxfId="154" priority="230"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="35"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J30">
-    <cfRule type="duplicateValues" dxfId="153" priority="231"/>
+  <conditionalFormatting sqref="H30">
+    <cfRule type="duplicateValues" dxfId="89" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="37"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
-    <cfRule type="duplicateValues" dxfId="152" priority="228"/>
+  <conditionalFormatting sqref="J40">
+    <cfRule type="duplicateValues" dxfId="87" priority="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J31">
-    <cfRule type="duplicateValues" dxfId="151" priority="229"/>
+  <conditionalFormatting sqref="J40">
+    <cfRule type="duplicateValues" dxfId="86" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="34"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
-    <cfRule type="duplicateValues" dxfId="150" priority="199"/>
+  <conditionalFormatting sqref="J37">
+    <cfRule type="duplicateValues" dxfId="84" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38">
+    <cfRule type="duplicateValues" dxfId="83" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38">
+    <cfRule type="duplicateValues" dxfId="82" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41">
+    <cfRule type="duplicateValues" dxfId="80" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41">
+    <cfRule type="duplicateValues" dxfId="79" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46">
+    <cfRule type="duplicateValues" dxfId="77" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46">
+    <cfRule type="duplicateValues" dxfId="76" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44">
+    <cfRule type="duplicateValues" dxfId="74" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44">
+    <cfRule type="duplicateValues" dxfId="73" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
+    <cfRule type="duplicateValues" dxfId="71" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
+    <cfRule type="duplicateValues" dxfId="70" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34">
+    <cfRule type="duplicateValues" dxfId="68" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34">
+    <cfRule type="duplicateValues" dxfId="67" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33">
-    <cfRule type="duplicateValues" dxfId="149" priority="200"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J37">
-    <cfRule type="duplicateValues" dxfId="148" priority="180"/>
+  <conditionalFormatting sqref="J78">
+    <cfRule type="duplicateValues" dxfId="64" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
-    <cfRule type="duplicateValues" dxfId="147" priority="181"/>
+  <conditionalFormatting sqref="H78">
+    <cfRule type="duplicateValues" dxfId="63" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
-    <cfRule type="duplicateValues" dxfId="146" priority="178"/>
+  <conditionalFormatting sqref="H77">
+    <cfRule type="duplicateValues" dxfId="62" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J38">
-    <cfRule type="duplicateValues" dxfId="145" priority="179"/>
+  <conditionalFormatting sqref="H77">
+    <cfRule type="duplicateValues" dxfId="61" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
-    <cfRule type="duplicateValues" dxfId="144" priority="174"/>
+  <conditionalFormatting sqref="H76">
+    <cfRule type="duplicateValues" dxfId="59" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J41">
-    <cfRule type="duplicateValues" dxfId="143" priority="175"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J47">
-    <cfRule type="duplicateValues" dxfId="142" priority="170"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
-    <cfRule type="duplicateValues" dxfId="141" priority="171"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H50">
-    <cfRule type="duplicateValues" dxfId="140" priority="168"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J50">
-    <cfRule type="duplicateValues" dxfId="139" priority="169"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J52">
-    <cfRule type="duplicateValues" dxfId="138" priority="166"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H52">
-    <cfRule type="duplicateValues" dxfId="137" priority="167"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14">
-    <cfRule type="duplicateValues" dxfId="136" priority="165"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H63">
-    <cfRule type="duplicateValues" dxfId="135" priority="162"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J63">
-    <cfRule type="duplicateValues" dxfId="134" priority="163"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J49">
-    <cfRule type="duplicateValues" dxfId="133" priority="159"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
-    <cfRule type="duplicateValues" dxfId="132" priority="156"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
-    <cfRule type="duplicateValues" dxfId="131" priority="157"/>
-    <cfRule type="duplicateValues" dxfId="130" priority="158"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J45">
-    <cfRule type="duplicateValues" dxfId="129" priority="155"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
-    <cfRule type="duplicateValues" dxfId="128" priority="151"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
-    <cfRule type="duplicateValues" dxfId="127" priority="152"/>
-    <cfRule type="duplicateValues" dxfId="126" priority="153"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
-    <cfRule type="duplicateValues" dxfId="125" priority="148"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
-    <cfRule type="duplicateValues" dxfId="124" priority="149"/>
-    <cfRule type="duplicateValues" dxfId="123" priority="150"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J43">
-    <cfRule type="duplicateValues" dxfId="122" priority="146"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
-    <cfRule type="duplicateValues" dxfId="121" priority="147"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="duplicateValues" dxfId="120" priority="142"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="duplicateValues" dxfId="119" priority="143"/>
-    <cfRule type="duplicateValues" dxfId="118" priority="144"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J48">
-    <cfRule type="duplicateValues" dxfId="117" priority="140"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
-    <cfRule type="duplicateValues" dxfId="116" priority="141"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J59">
-    <cfRule type="duplicateValues" dxfId="115" priority="135"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J61:J62">
-    <cfRule type="duplicateValues" dxfId="114" priority="121"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H61:H62">
-    <cfRule type="duplicateValues" dxfId="113" priority="117"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H61:H62">
-    <cfRule type="duplicateValues" dxfId="112" priority="118"/>
-    <cfRule type="duplicateValues" dxfId="111" priority="119"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J56">
-    <cfRule type="duplicateValues" dxfId="110" priority="101"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H56">
-    <cfRule type="duplicateValues" dxfId="109" priority="102"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J54">
-    <cfRule type="duplicateValues" dxfId="108" priority="100"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J57">
-    <cfRule type="duplicateValues" dxfId="107" priority="89"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
-    <cfRule type="duplicateValues" dxfId="106" priority="90"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H53">
-    <cfRule type="duplicateValues" dxfId="105" priority="86"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H53">
-    <cfRule type="duplicateValues" dxfId="104" priority="87"/>
-    <cfRule type="duplicateValues" dxfId="103" priority="88"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
-    <cfRule type="duplicateValues" dxfId="102" priority="83"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
-    <cfRule type="duplicateValues" dxfId="101" priority="84"/>
-    <cfRule type="duplicateValues" dxfId="100" priority="85"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H55">
-    <cfRule type="duplicateValues" dxfId="99" priority="80"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H55">
-    <cfRule type="duplicateValues" dxfId="98" priority="81"/>
-    <cfRule type="duplicateValues" dxfId="97" priority="82"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J35">
-    <cfRule type="duplicateValues" dxfId="96" priority="48"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="duplicateValues" dxfId="95" priority="49"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J58">
-    <cfRule type="duplicateValues" dxfId="94" priority="46"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H58">
-    <cfRule type="duplicateValues" dxfId="93" priority="47"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="92" priority="42"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="91" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="90" priority="44"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="duplicateValues" dxfId="89" priority="41"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6:H7">
-    <cfRule type="duplicateValues" dxfId="88" priority="45"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="87" priority="37"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3">
-    <cfRule type="duplicateValues" dxfId="86" priority="40"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="85" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="84" priority="39"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="duplicateValues" dxfId="83" priority="36"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="duplicateValues" dxfId="82" priority="33"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="duplicateValues" dxfId="81" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="80" priority="35"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9">
-    <cfRule type="duplicateValues" dxfId="79" priority="31"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="duplicateValues" dxfId="78" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="duplicateValues" dxfId="77" priority="27"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="duplicateValues" dxfId="76" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="75" priority="29"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="duplicateValues" dxfId="74" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="duplicateValues" dxfId="73" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="72" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J21">
-    <cfRule type="duplicateValues" dxfId="71" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
-    <cfRule type="duplicateValues" dxfId="70" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="duplicateValues" dxfId="69" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="duplicateValues" dxfId="68" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="duplicateValues" dxfId="66" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="duplicateValues" dxfId="65" priority="244"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="245"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J28">
-    <cfRule type="duplicateValues" dxfId="63" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J28">
-    <cfRule type="duplicateValues" dxfId="62" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="61" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10">
-    <cfRule type="duplicateValues" dxfId="60" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="duplicateValues" dxfId="59" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="duplicateValues" dxfId="58" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="duplicateValues" dxfId="56" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="duplicateValues" dxfId="55" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="3"/>
+  <conditionalFormatting sqref="H76">
+    <cfRule type="duplicateValues" dxfId="58" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="3"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation showInputMessage="1" sqref="I189 I2 I5 I10" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="F26 F27:G1048576 F1:G25" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation showInputMessage="1" sqref="I209 I2 I5 I10" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="F1:G27 F28 F29:G31 F36 F32 F33:G35 F37:G1048576" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -22872,32 +23748,32 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet28"/>
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="25.54296875" style="2" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="21" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="62.08984375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="100.81640625" style="2" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="14.1796875" style="2" customWidth="1" collapsed="1"/>
     <col min="5" max="16384" width="9.1796875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="22" customHeight="1">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -22937,7 +23813,7 @@
         <v>84</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>26</v>
@@ -23043,22 +23919,19 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="B13" s="2" t="s">
         <v>84</v>
       </c>
@@ -23071,13 +23944,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>26</v>
@@ -23085,13 +23958,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>26</v>
@@ -23105,7 +23978,7 @@
         <v>84</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>26</v>
@@ -23113,13 +23986,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>26</v>
@@ -23133,7 +24006,7 @@
         <v>84</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>26</v>
@@ -23147,7 +24020,7 @@
         <v>84</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>26</v>
@@ -23161,7 +24034,7 @@
         <v>84</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>26</v>
@@ -23169,13 +24042,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>26</v>
@@ -23183,13 +24056,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>26</v>
@@ -23203,7 +24076,7 @@
         <v>84</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>26</v>
@@ -23211,13 +24084,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>26</v>
@@ -23225,13 +24098,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>26</v>
@@ -23245,7 +24118,7 @@
         <v>84</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>26</v>
@@ -23259,7 +24132,7 @@
         <v>84</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>26</v>
@@ -23273,7 +24146,7 @@
         <v>84</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>26</v>
@@ -23281,13 +24154,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>26</v>
@@ -23295,13 +24168,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>26</v>
@@ -23309,13 +24182,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>26</v>
@@ -23323,13 +24196,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>26</v>
@@ -23337,13 +24210,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>26</v>
@@ -23351,13 +24224,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>26</v>
@@ -23371,7 +24244,7 @@
         <v>84</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>26</v>
@@ -23379,13 +24252,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>26</v>
@@ -23393,13 +24266,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>26</v>
@@ -23407,13 +24280,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>26</v>
@@ -23421,13 +24294,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>26</v>
@@ -23435,13 +24308,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>26</v>
@@ -23449,13 +24322,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>26</v>
@@ -23463,13 +24336,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>26</v>
@@ -23477,13 +24350,13 @@
     </row>
     <row r="43" spans="1:4" ht="13.5" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>26</v>
@@ -23491,13 +24364,13 @@
     </row>
     <row r="44" spans="1:4" ht="13.5" customHeight="1">
       <c r="A44" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>26</v>
@@ -23505,13 +24378,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>26</v>
@@ -23519,13 +24392,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>26</v>
@@ -23533,13 +24406,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>26</v>
@@ -23547,13 +24420,13 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>26</v>
@@ -23561,13 +24434,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>26</v>
@@ -23575,13 +24448,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>26</v>
@@ -23589,13 +24462,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>26</v>
@@ -23603,13 +24476,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>26</v>
@@ -23617,13 +24490,13 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>26</v>
@@ -23631,13 +24504,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>26</v>
@@ -23645,13 +24518,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>238</v>
+        <v>354</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>26</v>
@@ -23659,13 +24532,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>26</v>
@@ -23673,13 +24546,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>26</v>
@@ -23687,13 +24560,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>26</v>
@@ -23701,13 +24574,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>26</v>
@@ -23715,13 +24588,13 @@
     </row>
     <row r="60" spans="1:4" ht="12" customHeight="1">
       <c r="A60" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>26</v>
@@ -23729,13 +24602,13 @@
     </row>
     <row r="61" spans="1:4" ht="12" customHeight="1">
       <c r="A61" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>26</v>
@@ -23743,13 +24616,13 @@
     </row>
     <row r="62" spans="1:4" ht="12" customHeight="1">
       <c r="A62" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>26</v>
@@ -23757,13 +24630,13 @@
     </row>
     <row r="63" spans="1:4" ht="12" customHeight="1">
       <c r="A63" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>26</v>
@@ -23771,13 +24644,13 @@
     </row>
     <row r="64" spans="1:4" ht="12" customHeight="1">
       <c r="A64" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>26</v>
@@ -23785,13 +24658,13 @@
     </row>
     <row r="65" spans="1:4" ht="12" customHeight="1">
       <c r="A65" s="4" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>26</v>
@@ -23799,13 +24672,13 @@
     </row>
     <row r="66" spans="1:4" ht="12" customHeight="1">
       <c r="A66" s="4" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>26</v>
@@ -23813,13 +24686,13 @@
     </row>
     <row r="67" spans="1:4" ht="12" customHeight="1">
       <c r="A67" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>26</v>
@@ -23827,71 +24700,138 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="1:4" s="9" customFormat="1">
+    <row r="69" spans="1:4" s="8" customFormat="1">
       <c r="A69" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:4" s="9" customFormat="1">
+    <row r="70" spans="1:4" s="8" customFormat="1">
       <c r="A70" s="4" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="2" t="s">
-        <v>285</v>
-      </c>
       <c r="B71" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:4" s="9" customFormat="1">
+    <row r="72" spans="1:4" s="8" customFormat="1">
       <c r="A72" s="4" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="8" customFormat="1">
+      <c r="A73" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" s="8" customFormat="1">
+      <c r="A74" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" s="8" customFormat="1">
+      <c r="A75" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" s="8" customFormat="1">
+      <c r="A76" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" s="8" customFormat="1">
+      <c r="A77" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -23899,129 +24839,136 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D13:D59">
     <sortCondition ref="D13:D59"/>
   </sortState>
-  <conditionalFormatting sqref="A96:A1048576 A35:A41 A1 A51 A55 A57:A59 A73:A94">
-    <cfRule type="duplicateValues" dxfId="53" priority="73"/>
+  <conditionalFormatting sqref="A96:A1048576 A35:A41 A1 A51 A55 A57:A59 A78:A94">
+    <cfRule type="duplicateValues" dxfId="56" priority="76"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A96:A1048576 A35:A41 A1 A51 A55 A57:A59 A73:A94">
-    <cfRule type="duplicateValues" dxfId="52" priority="74"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="75"/>
+  <conditionalFormatting sqref="A96:A1048576 A35:A41 A1 A51 A55 A57:A59 A78:A94">
+    <cfRule type="duplicateValues" dxfId="55" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95">
-    <cfRule type="duplicateValues" dxfId="50" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95">
-    <cfRule type="duplicateValues" dxfId="49" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A12 A17 A14:A15">
+    <cfRule type="duplicateValues" dxfId="50" priority="49"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A12 A17 A14:A15">
+    <cfRule type="duplicateValues" dxfId="49" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="51"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29:A34">
     <cfRule type="duplicateValues" dxfId="47" priority="46"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A12 A17 A14:A15">
+  <conditionalFormatting sqref="A29:A34">
     <cfRule type="duplicateValues" dxfId="46" priority="47"/>
     <cfRule type="duplicateValues" dxfId="45" priority="48"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29:A34">
+  <conditionalFormatting sqref="A42">
     <cfRule type="duplicateValues" dxfId="44" priority="43"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29:A34">
+  <conditionalFormatting sqref="A42">
     <cfRule type="duplicateValues" dxfId="43" priority="44"/>
     <cfRule type="duplicateValues" dxfId="42" priority="45"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A42">
-    <cfRule type="duplicateValues" dxfId="41" priority="40"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42">
-    <cfRule type="duplicateValues" dxfId="40" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="42"/>
+  <conditionalFormatting sqref="A43:A44">
+    <cfRule type="duplicateValues" dxfId="41" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:A44">
-    <cfRule type="duplicateValues" dxfId="38" priority="109"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A43:A44">
-    <cfRule type="duplicateValues" dxfId="37" priority="110"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:A49">
-    <cfRule type="duplicateValues" dxfId="35" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:A49">
-    <cfRule type="duplicateValues" dxfId="34" priority="136"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
+    <cfRule type="duplicateValues" dxfId="35" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50">
+    <cfRule type="duplicateValues" dxfId="34" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52">
     <cfRule type="duplicateValues" dxfId="32" priority="31"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A50">
+  <conditionalFormatting sqref="A52">
     <cfRule type="duplicateValues" dxfId="31" priority="32"/>
     <cfRule type="duplicateValues" dxfId="30" priority="33"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A52">
+  <conditionalFormatting sqref="A53">
     <cfRule type="duplicateValues" dxfId="29" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A52">
+  <conditionalFormatting sqref="A53">
     <cfRule type="duplicateValues" dxfId="28" priority="29"/>
     <cfRule type="duplicateValues" dxfId="27" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A53">
+  <conditionalFormatting sqref="A54">
     <cfRule type="duplicateValues" dxfId="26" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A53">
+  <conditionalFormatting sqref="A54">
     <cfRule type="duplicateValues" dxfId="25" priority="26"/>
     <cfRule type="duplicateValues" dxfId="24" priority="27"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A54">
+  <conditionalFormatting sqref="A56">
     <cfRule type="duplicateValues" dxfId="23" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A54">
+  <conditionalFormatting sqref="A56">
     <cfRule type="duplicateValues" dxfId="22" priority="23"/>
     <cfRule type="duplicateValues" dxfId="21" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A56">
+  <conditionalFormatting sqref="A60:A67">
     <cfRule type="duplicateValues" dxfId="20" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A56">
+  <conditionalFormatting sqref="A60:A67">
     <cfRule type="duplicateValues" dxfId="19" priority="20"/>
     <cfRule type="duplicateValues" dxfId="18" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A60:A67">
+  <conditionalFormatting sqref="A68">
     <cfRule type="duplicateValues" dxfId="17" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A60:A67">
+  <conditionalFormatting sqref="A68">
     <cfRule type="duplicateValues" dxfId="16" priority="17"/>
     <cfRule type="duplicateValues" dxfId="15" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A68">
+  <conditionalFormatting sqref="A69">
     <cfRule type="duplicateValues" dxfId="14" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A68">
+  <conditionalFormatting sqref="A69">
     <cfRule type="duplicateValues" dxfId="13" priority="14"/>
     <cfRule type="duplicateValues" dxfId="12" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A69">
+  <conditionalFormatting sqref="A70">
     <cfRule type="duplicateValues" dxfId="11" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A69">
+  <conditionalFormatting sqref="A70">
     <cfRule type="duplicateValues" dxfId="10" priority="11"/>
     <cfRule type="duplicateValues" dxfId="9" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A70">
+  <conditionalFormatting sqref="A71">
     <cfRule type="duplicateValues" dxfId="8" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A70">
+  <conditionalFormatting sqref="A71">
     <cfRule type="duplicateValues" dxfId="7" priority="8"/>
     <cfRule type="duplicateValues" dxfId="6" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
+  <conditionalFormatting sqref="A72">
     <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
+  <conditionalFormatting sqref="A72">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
     <cfRule type="duplicateValues" dxfId="3" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A72">
+  <conditionalFormatting sqref="A73">
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A72">
+  <conditionalFormatting sqref="A73">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>

--- a/GL90_Script_EditUnpostedJournal_21B.xlsx
+++ b/GL90_Script_EditUnpostedJournal_21B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PriyankJain\Desktop\23June-GL Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF_Selenium_IGA-master\venv\Selenium\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD352A6-A937-4A75-AD76-9B01FAE6572C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D68554-A617-4FC6-800D-0ECDEEA6B92E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EditUnpostedJournal" sheetId="30" r:id="rId1"/>
@@ -18,14 +18,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AllObjects!$A$1:$D$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">EditUnpostedJournal!$A$1:$N$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">EditUnpostedJournal!$A$1:$N$99</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="393">
   <si>
     <t>SCREENSHOT</t>
   </si>
@@ -937,12 +937,6 @@
   </si>
   <si>
     <t>Step 68</t>
-  </si>
-  <si>
-    <t>Exists||Step 54-Step 55||Step 56-Step 57</t>
-  </si>
-  <si>
-    <t>Exists||Step 45-Step 46||Step 47-Step 48</t>
   </si>
   <si>
     <t>//a[@title='Collapse Search']</t>
@@ -1096,13 +1090,121 @@
     <t>Step 71</t>
   </si>
   <si>
-    <t>Exists||Step 59-Step 60||Step 61-Step 62</t>
-  </si>
-  <si>
     <t>Enter Account</t>
   </si>
   <si>
     <t xml:space="preserve">Entered Account </t>
+  </si>
+  <si>
+    <t>Account2</t>
+  </si>
+  <si>
+    <t>CreditAmt</t>
+  </si>
+  <si>
+    <t>Step 72</t>
+  </si>
+  <si>
+    <t>Step 73</t>
+  </si>
+  <si>
+    <t>Step 74</t>
+  </si>
+  <si>
+    <t>Step 75</t>
+  </si>
+  <si>
+    <t>Step 76</t>
+  </si>
+  <si>
+    <t>Step 77</t>
+  </si>
+  <si>
+    <t>Step 78</t>
+  </si>
+  <si>
+    <t>Step 79</t>
+  </si>
+  <si>
+    <t>Step 80</t>
+  </si>
+  <si>
+    <t>Step 81</t>
+  </si>
+  <si>
+    <t>Step 82</t>
+  </si>
+  <si>
+    <t>Step 83</t>
+  </si>
+  <si>
+    <t>Step 84</t>
+  </si>
+  <si>
+    <t>Step 85</t>
+  </si>
+  <si>
+    <t>Step 86</t>
+  </si>
+  <si>
+    <t>Step 87</t>
+  </si>
+  <si>
+    <t>Step 88</t>
+  </si>
+  <si>
+    <t>Step 89</t>
+  </si>
+  <si>
+    <t>Step 90</t>
+  </si>
+  <si>
+    <t>Step 91</t>
+  </si>
+  <si>
+    <t>Step 92</t>
+  </si>
+  <si>
+    <t>Step 93</t>
+  </si>
+  <si>
+    <t>Step 94</t>
+  </si>
+  <si>
+    <t>Step 95</t>
+  </si>
+  <si>
+    <t>Step 96</t>
+  </si>
+  <si>
+    <t>Exists||Step 69-Step 70||Step 71-Step 72</t>
+  </si>
+  <si>
+    <t>Exists||Step 78-Step 79||Step 80-Step 81</t>
+  </si>
+  <si>
+    <t>Exists||Step 84-Step 85||Step 86-Step 87</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'_ATp:t3:1:EnteredCr::content')]</t>
+  </si>
+  <si>
+    <t>Explicit wait for CreditAmt</t>
+  </si>
+  <si>
+    <t>Click on CreditAmt</t>
+  </si>
+  <si>
+    <t>Clicked on CreditAmt</t>
+  </si>
+  <si>
+    <t>Enter CreditAmt</t>
+  </si>
+  <si>
+    <t>CreditAmt entered</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'jeLineAppTable:_ATp:t3:1:accountCS::content')]</t>
   </si>
 </sst>
 </file>
@@ -17393,7 +17495,147 @@
     <cellStyle name="Warning Text 9" xfId="5939" xr:uid="{00000000-0005-0000-0000-0000921E0000}"/>
     <cellStyle name="Warning Text 9 2" xfId="7821" xr:uid="{00000000-0005-0000-0000-0000931E0000}"/>
   </cellStyles>
-  <dxfs count="200">
+  <dxfs count="214">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -19738,10 +19980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N241"/>
+  <dimension ref="A1:N251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -19804,7 +20046,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -19866,7 +20108,7 @@
         <v>39</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3"/>
@@ -20037,7 +20279,7 @@
         <v>39</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K8" s="2"/>
       <c r="M8" t="s">
@@ -20087,10 +20329,10 @@
         <v>52</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>26</v>
@@ -20099,13 +20341,13 @@
         <v>47</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K10" s="2"/>
       <c r="M10" s="2" t="s">
@@ -20121,10 +20363,10 @@
         <v>54</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>26</v>
@@ -20133,7 +20375,7 @@
         <v>24</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I11" s="2"/>
       <c r="K11" s="2"/>
@@ -20168,7 +20410,7 @@
         <v>39</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K12" s="2"/>
       <c r="M12" t="s">
@@ -20229,7 +20471,7 @@
         <v>39</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K14" s="2"/>
       <c r="M14" t="s">
@@ -20292,7 +20534,7 @@
         <v>39</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M16" t="s">
         <v>206</v>
@@ -20335,7 +20577,7 @@
         <v>120</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>93</v>
@@ -20356,7 +20598,7 @@
         <v>39</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M18" t="s">
         <v>206</v>
@@ -20399,7 +20641,7 @@
         <v>120</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>93</v>
@@ -20420,7 +20662,7 @@
         <v>39</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M20" t="s">
         <v>206</v>
@@ -20443,17 +20685,17 @@
         <v>228</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H21"/>
       <c r="I21" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K21"/>
       <c r="L21"/>
@@ -20469,7 +20711,7 @@
         <v>120</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>156</v>
@@ -20490,10 +20732,10 @@
         <v>39</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -20522,7 +20764,7 @@
         <v>153</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -20554,10 +20796,10 @@
         <v>39</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -20583,16 +20825,16 @@
         <v>47</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -20606,26 +20848,26 @@
         <v>113</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="G26" s="4" t="s">
         <v>325</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>327</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -20639,10 +20881,10 @@
         <v>114</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>26</v>
@@ -20651,10 +20893,10 @@
         <v>24</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -20665,13 +20907,13 @@
         <v>120</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>26</v>
@@ -20680,17 +20922,17 @@
         <v>42</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K28" s="5"/>
       <c r="M28" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -20704,23 +20946,23 @@
         <v>280</v>
       </c>
       <c r="D29" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E29" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F29" t="s">
         <v>16</v>
       </c>
       <c r="G29" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I29"/>
       <c r="J29" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K29"/>
       <c r="L29"/>
@@ -20739,26 +20981,26 @@
         <v>281</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="G30" s="4" t="s">
         <v>325</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>327</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -20772,10 +21014,10 @@
         <v>282</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>26</v>
@@ -20784,10 +21026,10 @@
         <v>24</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -20801,10 +21043,10 @@
         <v>283</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>26</v>
@@ -20813,17 +21055,17 @@
         <v>42</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K32" s="5"/>
       <c r="M32" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -20837,23 +21079,23 @@
         <v>284</v>
       </c>
       <c r="D33" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E33" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F33" t="s">
         <v>16</v>
       </c>
       <c r="G33" t="s">
+        <v>332</v>
+      </c>
+      <c r="H33" s="2" t="s">
         <v>334</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="I33"/>
       <c r="J33" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K33"/>
       <c r="L33"/>
@@ -20872,26 +21114,26 @@
         <v>285</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="G34" s="4" t="s">
         <v>325</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>327</v>
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -20923,10 +21165,10 @@
         <v>39</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -20940,10 +21182,10 @@
         <v>137</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>26</v>
@@ -20962,7 +21204,7 @@
       </c>
       <c r="K36" s="5"/>
       <c r="M36" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -20976,23 +21218,23 @@
         <v>138</v>
       </c>
       <c r="D37" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E37" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F37" t="s">
         <v>16</v>
       </c>
       <c r="G37" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>60</v>
       </c>
       <c r="I37"/>
       <c r="J37" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K37"/>
       <c r="L37"/>
@@ -21011,26 +21253,26 @@
         <v>287</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="G38" s="4" t="s">
         <v>325</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>327</v>
       </c>
       <c r="H38" s="4"/>
       <c r="I38" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -21062,7 +21304,7 @@
         <v>39</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>206</v>
@@ -21079,10 +21321,10 @@
         <v>289</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>26</v>
@@ -21114,26 +21356,26 @@
         <v>290</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="G41" s="4" t="s">
         <v>325</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>327</v>
       </c>
       <c r="H41" s="4"/>
       <c r="I41" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -21165,10 +21407,10 @@
         <v>39</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -21191,7 +21433,7 @@
         <v>26</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>59</v>
@@ -21201,7 +21443,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="M43" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -21215,26 +21457,26 @@
         <v>293</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="G44" s="4" t="s">
         <v>325</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>327</v>
       </c>
       <c r="H44" s="4"/>
       <c r="I44" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -21248,29 +21490,29 @@
         <v>294</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K45" s="2"/>
       <c r="M45" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -21284,26 +21526,26 @@
         <v>295</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="G46" s="4" t="s">
         <v>325</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>327</v>
       </c>
       <c r="H46" s="4"/>
       <c r="I46" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -21335,10 +21577,10 @@
         <v>39</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -21349,7 +21591,7 @@
         <v>120</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>284</v>
+        <v>214</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>103</v>
@@ -21370,7 +21612,7 @@
         <v>39</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="M48" t="s">
         <v>206</v>
@@ -21384,7 +21626,7 @@
         <v>120</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>285</v>
+        <v>215</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>102</v>
@@ -21413,7 +21655,7 @@
         <v>120</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>286</v>
+        <v>216</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>177</v>
@@ -21434,7 +21676,7 @@
         <v>39</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L50" s="7"/>
       <c r="M50" t="s">
@@ -21449,7 +21691,7 @@
         <v>120</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>179</v>
@@ -21479,7 +21721,7 @@
         <v>120</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>138</v>
+        <v>218</v>
       </c>
       <c r="D52" t="s">
         <v>212</v>
@@ -21488,17 +21730,17 @@
         <v>228</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H52"/>
       <c r="I52" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K52"/>
       <c r="L52"/>
@@ -21514,13 +21756,13 @@
         <v>237</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>287</v>
+        <v>219</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>26</v>
@@ -21551,7 +21793,7 @@
         <v>120</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>288</v>
+        <v>220</v>
       </c>
       <c r="D54" t="s">
         <v>212</v>
@@ -21560,17 +21802,17 @@
         <v>228</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H54"/>
       <c r="I54" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K54"/>
       <c r="L54"/>
@@ -21586,7 +21828,7 @@
         <v>120</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>289</v>
+        <v>221</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>190</v>
@@ -21607,7 +21849,7 @@
         <v>39</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="L55" s="7"/>
       <c r="M55" t="s">
@@ -21622,7 +21864,7 @@
         <v>120</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>290</v>
+        <v>222</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>192</v>
@@ -21652,7 +21894,7 @@
         <v>120</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>291</v>
+        <v>223</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>194</v>
@@ -21689,30 +21931,29 @@
         <v>120</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>203</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="D58" t="s">
+        <v>212</v>
+      </c>
+      <c r="E58" t="s">
+        <v>228</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="H58"/>
       <c r="I58" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="L58" s="7"/>
+      <c r="K58"/>
+      <c r="L58"/>
       <c r="M58" t="s">
         <v>206</v>
       </c>
@@ -21725,22 +21966,28 @@
         <v>120</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>293</v>
+        <v>225</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>205</v>
+        <v>387</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>203</v>
+        <v>357</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="L59" s="7"/>
       <c r="M59" t="s">
@@ -21755,29 +22002,24 @@
         <v>120</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="D60" t="s">
-        <v>228</v>
-      </c>
-      <c r="E60" t="s">
-        <v>228</v>
-      </c>
-      <c r="F60" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="G60" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="H60"/>
-      <c r="I60" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="K60"/>
-      <c r="L60"/>
+        <v>226</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="L60" s="7"/>
       <c r="M60" t="s">
         <v>206</v>
       </c>
@@ -21790,26 +22032,29 @@
         <v>120</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>239</v>
+        <v>227</v>
+      </c>
+      <c r="D61" t="s">
+        <v>212</v>
+      </c>
+      <c r="E61" t="s">
+        <v>228</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="H61"/>
+      <c r="I61" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>305</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="K61"/>
+      <c r="L61"/>
       <c r="M61" t="s">
         <v>206</v>
       </c>
@@ -21822,30 +22067,31 @@
         <v>120</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>213</v>
+        <v>250</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>46</v>
+        <v>390</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>391</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="I62" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="I62" t="s">
         <v>39</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="L62" s="7"/>
+        <v>357</v>
+      </c>
+      <c r="K62" s="5"/>
+      <c r="L62"/>
       <c r="M62" t="s">
         <v>206</v>
       </c>
@@ -21858,24 +22104,29 @@
         <v>120</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="L63" s="7"/>
+        <v>296</v>
+      </c>
+      <c r="D63" t="s">
+        <v>212</v>
+      </c>
+      <c r="E63" t="s">
+        <v>228</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="H63"/>
+      <c r="I63" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="K63"/>
+      <c r="L63"/>
       <c r="M63" t="s">
         <v>206</v>
       </c>
@@ -21888,27 +22139,30 @@
         <v>120</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>215</v>
+        <v>297</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>228</v>
+        <v>177</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>327</v>
+        <v>46</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>356</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="K64" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="L64" s="7"/>
       <c r="M64" t="s">
         <v>206</v>
       </c>
@@ -21921,27 +22175,29 @@
         <v>120</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D65" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D65" t="s">
+        <v>212</v>
+      </c>
+      <c r="E65" t="s">
         <v>228</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>327</v>
-      </c>
+      <c r="F65" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="H65"/>
       <c r="I65" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="K65" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="K65"/>
+      <c r="L65"/>
       <c r="M65" t="s">
         <v>206</v>
       </c>
@@ -21954,30 +22210,31 @@
         <v>237</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>202</v>
+        <v>299</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>354</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>46</v>
+        <v>355</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="I66" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="I66" t="s">
         <v>39</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="L66" s="7"/>
+        <v>178</v>
+      </c>
+      <c r="K66" s="5"/>
+      <c r="L66"/>
       <c r="M66" t="s">
         <v>206</v>
       </c>
@@ -21990,30 +22247,29 @@
         <v>120</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>208</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="D67" t="s">
+        <v>212</v>
+      </c>
+      <c r="E67" t="s">
+        <v>228</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="H67"/>
       <c r="I67" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="L67" s="7"/>
+      <c r="K67"/>
+      <c r="L67"/>
       <c r="M67" t="s">
         <v>206</v>
       </c>
@@ -22026,22 +22282,28 @@
         <v>120</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>219</v>
+        <v>301</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>211</v>
+        <v>202</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="L68" s="7"/>
       <c r="M68" t="s">
@@ -22056,29 +22318,24 @@
         <v>120</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D69" t="s">
-        <v>212</v>
-      </c>
-      <c r="E69" t="s">
-        <v>212</v>
-      </c>
-      <c r="F69" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="G69" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="H69"/>
-      <c r="I69" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="K69"/>
-      <c r="L69"/>
+        <v>243</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="L69" s="7"/>
       <c r="M69" t="s">
         <v>206</v>
       </c>
@@ -22091,26 +22348,29 @@
         <v>120</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>206</v>
+        <v>244</v>
+      </c>
+      <c r="D70" t="s">
+        <v>228</v>
+      </c>
+      <c r="E70" t="s">
+        <v>228</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="H70"/>
+      <c r="I70" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>304</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="K70"/>
+      <c r="L70"/>
       <c r="M70" t="s">
         <v>206</v>
       </c>
@@ -22123,30 +22383,26 @@
         <v>120</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>202</v>
+        <v>303</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>241</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>46</v>
+        <v>242</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>47</v>
+        <v>302</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>39</v>
+        <v>239</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="L71" s="7"/>
+        <v>383</v>
+      </c>
       <c r="M71" t="s">
         <v>206</v>
       </c>
@@ -22159,22 +22415,28 @@
         <v>120</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>223</v>
+        <v>348</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>206</v>
+        <v>239</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="L72" s="7"/>
       <c r="M72" t="s">
@@ -22189,27 +22451,24 @@
         <v>120</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J73" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="K73" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="L73" s="7"/>
       <c r="M73" t="s">
         <v>206</v>
       </c>
@@ -22222,7 +22481,7 @@
         <v>120</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>225</v>
+        <v>353</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>228</v>
@@ -22231,16 +22490,16 @@
         <v>228</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K74" s="2"/>
       <c r="M74" t="s">
@@ -22255,29 +22514,27 @@
         <v>120</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D75" t="s">
-        <v>212</v>
-      </c>
-      <c r="E75" t="s">
-        <v>212</v>
-      </c>
-      <c r="F75" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="G75" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="H75"/>
+        <v>358</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>325</v>
+      </c>
       <c r="I75" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="K75"/>
-      <c r="L75"/>
+        <v>310</v>
+      </c>
+      <c r="K75" s="2"/>
       <c r="M75" t="s">
         <v>206</v>
       </c>
@@ -22287,28 +22544,31 @@
         <v>186</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>120</v>
+        <v>237</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>227</v>
+        <v>359</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>353</v>
+        <v>202</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>302</v>
+        <v>47</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>234</v>
+        <v>155</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>356</v>
+        <v>309</v>
       </c>
       <c r="L76" s="7"/>
       <c r="M76" t="s">
@@ -22323,22 +22583,28 @@
         <v>120</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>250</v>
+        <v>360</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>353</v>
+        <v>209</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>234</v>
+        <v>47</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="L77" s="7"/>
       <c r="M77" t="s">
@@ -22353,27 +22619,24 @@
         <v>120</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J78" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="K78" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="L78" s="7"/>
       <c r="M78" t="s">
         <v>206</v>
       </c>
@@ -22386,30 +22649,29 @@
         <v>120</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>68</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="D79" t="s">
+        <v>212</v>
+      </c>
+      <c r="E79" t="s">
+        <v>212</v>
+      </c>
+      <c r="F79" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="G79" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="H79"/>
       <c r="I79" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="L79" s="7"/>
+      <c r="K79"/>
+      <c r="L79"/>
       <c r="M79" t="s">
         <v>206</v>
       </c>
@@ -22422,30 +22684,26 @@
         <v>120</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>298</v>
+        <v>363</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>121</v>
+        <v>241</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>122</v>
+        <v>242</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H80" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>25</v>
+        <v>302</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K80" s="2"/>
+        <v>384</v>
+      </c>
       <c r="M80" t="s">
         <v>206</v>
       </c>
@@ -22458,10 +22716,10 @@
         <v>120</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>299</v>
+        <v>364</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>46</v>
@@ -22473,13 +22731,13 @@
         <v>47</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>151</v>
+        <v>206</v>
       </c>
       <c r="I81" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="L81" s="7"/>
       <c r="M81" t="s">
@@ -22494,13 +22752,13 @@
         <v>120</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>300</v>
+        <v>365</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>307</v>
+        <v>204</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>307</v>
+        <v>205</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>26</v>
@@ -22509,76 +22767,73 @@
         <v>24</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="I82" s="2"/>
+        <v>206</v>
+      </c>
       <c r="L82" s="7"/>
       <c r="M82" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="83" spans="1:13">
-      <c r="A83" s="4"/>
+      <c r="A83" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B83" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>233</v>
+        <v>366</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H83" s="4" t="s">
-        <v>123</v>
+        <v>228</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>325</v>
       </c>
       <c r="I83" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="L83" s="7"/>
+        <v>310</v>
+      </c>
+      <c r="K83" s="2"/>
       <c r="M83" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="84" spans="1:13">
-      <c r="A84" s="4"/>
+      <c r="A84" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B84" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>243</v>
+        <v>367</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>121</v>
+        <v>228</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>123</v>
+        <v>228</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>325</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>25</v>
+        <v>310</v>
       </c>
       <c r="K84" s="2"/>
       <c r="M84" t="s">
@@ -22586,261 +22841,559 @@
       </c>
     </row>
     <row r="85" spans="1:13">
-      <c r="A85" s="4"/>
+      <c r="A85" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B85" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>127</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="D85" t="s">
+        <v>212</v>
+      </c>
+      <c r="E85" t="s">
+        <v>212</v>
+      </c>
+      <c r="F85" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="G85" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="H85"/>
       <c r="I85" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="K85" s="2"/>
-      <c r="M85" s="2" t="s">
-        <v>25</v>
+      <c r="K85"/>
+      <c r="L85"/>
+      <c r="M85" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="86" spans="1:13">
-      <c r="A86" s="4"/>
+      <c r="A86" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B86" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>129</v>
+        <v>369</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>351</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>24</v>
+        <v>302</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>25</v>
+        <v>234</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K86" s="2"/>
-      <c r="M86" s="2" t="s">
-        <v>25</v>
+        <v>385</v>
+      </c>
+      <c r="L86" s="7"/>
+      <c r="M86" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="87" spans="1:13">
-      <c r="A87" s="4"/>
+      <c r="A87" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B87" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C87" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D87" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="D87" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>132</v>
+      <c r="E87" s="4" t="s">
+        <v>351</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J87" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="K87" s="2"/>
-      <c r="M87" s="2" t="s">
-        <v>25</v>
+        <v>234</v>
+      </c>
+      <c r="L87" s="7"/>
+      <c r="M87" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="88" spans="1:13">
-      <c r="A88" s="4"/>
+      <c r="A88" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B88" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>134</v>
+        <v>228</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>133</v>
+        <v>228</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>325</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>25</v>
+        <v>310</v>
       </c>
       <c r="K88" s="2"/>
-      <c r="M88" s="2" t="s">
-        <v>25</v>
+      <c r="M88" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="89" spans="1:13">
-      <c r="A89" s="4"/>
+      <c r="A89" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B89" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D89" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="L89" s="7"/>
+      <c r="M89" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K90" s="2"/>
+      <c r="M90" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="L91" s="7"/>
+      <c r="M91" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I92" s="2"/>
+      <c r="L92" s="7"/>
+      <c r="M92" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="L93" s="7"/>
+      <c r="M93" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K94" s="2"/>
+      <c r="M94" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="K95" s="2"/>
+      <c r="M95" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K96" s="2"/>
+      <c r="M96" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="K97" s="2"/>
+      <c r="M97" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K98" s="2"/>
+      <c r="M98" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="E99" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F89" s="2" t="s">
+      <c r="F99" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G89" s="2" t="s">
+      <c r="G99" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="I89" s="2" t="s">
+      <c r="I99" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J89" s="2" t="s">
+      <c r="J99" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K89" s="2"/>
-      <c r="M89" s="2" t="s">
+      <c r="K99" s="2"/>
+      <c r="M99" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
-      <c r="I90" s="2"/>
-      <c r="K90" s="2"/>
-    </row>
-    <row r="91" spans="1:13">
-      <c r="I91" s="2"/>
-      <c r="K91" s="2"/>
-    </row>
-    <row r="92" spans="1:13">
-      <c r="I92" s="2"/>
-      <c r="K92" s="2"/>
-    </row>
-    <row r="93" spans="1:13">
-      <c r="I93" s="2"/>
-      <c r="K93" s="2"/>
-    </row>
-    <row r="94" spans="1:13">
-      <c r="I94" s="2"/>
-      <c r="K94" s="2"/>
-    </row>
-    <row r="95" spans="1:13">
-      <c r="I95" s="2"/>
-      <c r="K95" s="2"/>
-    </row>
-    <row r="96" spans="1:13">
-      <c r="I96" s="2"/>
-      <c r="K96" s="2"/>
-    </row>
-    <row r="97" spans="9:11">
-      <c r="I97" s="2"/>
-      <c r="K97" s="2"/>
-    </row>
-    <row r="98" spans="9:11">
-      <c r="I98" s="2"/>
-      <c r="K98" s="2"/>
-    </row>
-    <row r="99" spans="9:11">
-      <c r="I99" s="2"/>
-      <c r="K99" s="2"/>
-    </row>
-    <row r="100" spans="9:11">
+    <row r="100" spans="1:13">
       <c r="I100" s="2"/>
       <c r="K100" s="2"/>
     </row>
-    <row r="101" spans="9:11">
+    <row r="101" spans="1:13">
       <c r="I101" s="2"/>
       <c r="K101" s="2"/>
     </row>
-    <row r="102" spans="9:11">
+    <row r="102" spans="1:13">
       <c r="I102" s="2"/>
       <c r="K102" s="2"/>
     </row>
-    <row r="103" spans="9:11">
+    <row r="103" spans="1:13">
       <c r="I103" s="2"/>
       <c r="K103" s="2"/>
     </row>
-    <row r="104" spans="9:11">
+    <row r="104" spans="1:13">
       <c r="I104" s="2"/>
       <c r="K104" s="2"/>
     </row>
-    <row r="105" spans="9:11">
+    <row r="105" spans="1:13">
       <c r="I105" s="2"/>
       <c r="K105" s="2"/>
     </row>
-    <row r="106" spans="9:11">
+    <row r="106" spans="1:13">
       <c r="I106" s="2"/>
       <c r="K106" s="2"/>
     </row>
-    <row r="107" spans="9:11">
+    <row r="107" spans="1:13">
       <c r="I107" s="2"/>
       <c r="K107" s="2"/>
     </row>
-    <row r="108" spans="9:11">
+    <row r="108" spans="1:13">
       <c r="I108" s="2"/>
       <c r="K108" s="2"/>
     </row>
-    <row r="109" spans="9:11">
+    <row r="109" spans="1:13">
       <c r="I109" s="2"/>
       <c r="K109" s="2"/>
     </row>
-    <row r="110" spans="9:11">
+    <row r="110" spans="1:13">
       <c r="I110" s="2"/>
       <c r="K110" s="2"/>
     </row>
-    <row r="111" spans="9:11">
+    <row r="111" spans="1:13">
       <c r="I111" s="2"/>
       <c r="K111" s="2"/>
     </row>
-    <row r="112" spans="9:11">
+    <row r="112" spans="1:13">
       <c r="I112" s="2"/>
       <c r="K112" s="2"/>
     </row>
@@ -23292,451 +23845,533 @@
       <c r="I224" s="2"/>
       <c r="K224" s="2"/>
     </row>
-    <row r="225" spans="1:11">
+    <row r="225" spans="9:11">
       <c r="I225" s="2"/>
       <c r="K225" s="2"/>
     </row>
-    <row r="226" spans="1:11">
+    <row r="226" spans="9:11">
       <c r="I226" s="2"/>
       <c r="K226" s="2"/>
     </row>
-    <row r="227" spans="1:11">
+    <row r="227" spans="9:11">
       <c r="I227" s="2"/>
       <c r="K227" s="2"/>
     </row>
-    <row r="228" spans="1:11">
+    <row r="228" spans="9:11">
       <c r="I228" s="2"/>
       <c r="K228" s="2"/>
     </row>
-    <row r="229" spans="1:11">
+    <row r="229" spans="9:11">
       <c r="I229" s="2"/>
       <c r="K229" s="2"/>
     </row>
-    <row r="230" spans="1:11">
+    <row r="230" spans="9:11">
       <c r="I230" s="2"/>
       <c r="K230" s="2"/>
     </row>
-    <row r="231" spans="1:11">
+    <row r="231" spans="9:11">
       <c r="I231" s="2"/>
       <c r="K231" s="2"/>
     </row>
-    <row r="232" spans="1:11">
+    <row r="232" spans="9:11">
       <c r="I232" s="2"/>
       <c r="K232" s="2"/>
     </row>
-    <row r="233" spans="1:11">
+    <row r="233" spans="9:11">
       <c r="I233" s="2"/>
       <c r="K233" s="2"/>
     </row>
-    <row r="234" spans="1:11">
+    <row r="234" spans="9:11">
       <c r="I234" s="2"/>
       <c r="K234" s="2"/>
     </row>
-    <row r="235" spans="1:11">
+    <row r="235" spans="9:11">
       <c r="I235" s="2"/>
       <c r="K235" s="2"/>
     </row>
-    <row r="236" spans="1:11">
+    <row r="236" spans="9:11">
       <c r="I236" s="2"/>
       <c r="K236" s="2"/>
     </row>
-    <row r="237" spans="1:11">
+    <row r="237" spans="9:11">
       <c r="I237" s="2"/>
       <c r="K237" s="2"/>
     </row>
-    <row r="238" spans="1:11">
+    <row r="238" spans="9:11">
       <c r="I238" s="2"/>
       <c r="K238" s="2"/>
     </row>
-    <row r="239" spans="1:11">
+    <row r="239" spans="9:11">
       <c r="I239" s="2"/>
       <c r="K239" s="2"/>
     </row>
-    <row r="240" spans="1:11">
-      <c r="A240" s="4"/>
-      <c r="B240" s="6"/>
+    <row r="240" spans="9:11">
       <c r="I240" s="2"/>
       <c r="K240" s="2"/>
     </row>
-    <row r="241" spans="9:11">
+    <row r="241" spans="1:11">
       <c r="I241" s="2"/>
       <c r="K241" s="2"/>
     </row>
+    <row r="242" spans="1:11">
+      <c r="I242" s="2"/>
+      <c r="K242" s="2"/>
+    </row>
+    <row r="243" spans="1:11">
+      <c r="I243" s="2"/>
+      <c r="K243" s="2"/>
+    </row>
+    <row r="244" spans="1:11">
+      <c r="I244" s="2"/>
+      <c r="K244" s="2"/>
+    </row>
+    <row r="245" spans="1:11">
+      <c r="I245" s="2"/>
+      <c r="K245" s="2"/>
+    </row>
+    <row r="246" spans="1:11">
+      <c r="I246" s="2"/>
+      <c r="K246" s="2"/>
+    </row>
+    <row r="247" spans="1:11">
+      <c r="I247" s="2"/>
+      <c r="K247" s="2"/>
+    </row>
+    <row r="248" spans="1:11">
+      <c r="I248" s="2"/>
+      <c r="K248" s="2"/>
+    </row>
+    <row r="249" spans="1:11">
+      <c r="I249" s="2"/>
+      <c r="K249" s="2"/>
+    </row>
+    <row r="250" spans="1:11">
+      <c r="A250" s="4"/>
+      <c r="B250" s="6"/>
+      <c r="I250" s="2"/>
+      <c r="K250" s="2"/>
+    </row>
+    <row r="251" spans="1:11">
+      <c r="I251" s="2"/>
+      <c r="K251" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="32" type="noConversion"/>
-  <conditionalFormatting sqref="H209:I209">
-    <cfRule type="duplicateValues" dxfId="199" priority="285"/>
+  <conditionalFormatting sqref="H219:I219">
+    <cfRule type="duplicateValues" dxfId="213" priority="305"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H209:I209">
-    <cfRule type="duplicateValues" dxfId="198" priority="286"/>
-    <cfRule type="duplicateValues" dxfId="197" priority="287"/>
+  <conditionalFormatting sqref="H219:I219">
+    <cfRule type="duplicateValues" dxfId="212" priority="306"/>
+    <cfRule type="duplicateValues" dxfId="211" priority="307"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="duplicateValues" dxfId="196" priority="283"/>
+    <cfRule type="duplicateValues" dxfId="210" priority="303"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="duplicateValues" dxfId="195" priority="284"/>
+    <cfRule type="duplicateValues" dxfId="209" priority="304"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="duplicateValues" dxfId="194" priority="282"/>
+    <cfRule type="duplicateValues" dxfId="208" priority="302"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="duplicateValues" dxfId="193" priority="277"/>
+    <cfRule type="duplicateValues" dxfId="207" priority="297"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="duplicateValues" dxfId="192" priority="278"/>
+    <cfRule type="duplicateValues" dxfId="206" priority="298"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="duplicateValues" dxfId="191" priority="273"/>
+    <cfRule type="duplicateValues" dxfId="205" priority="293"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48">
-    <cfRule type="duplicateValues" dxfId="190" priority="274"/>
+    <cfRule type="duplicateValues" dxfId="204" priority="294"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="duplicateValues" dxfId="189" priority="244"/>
+    <cfRule type="duplicateValues" dxfId="203" priority="264"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J50">
-    <cfRule type="duplicateValues" dxfId="188" priority="245"/>
+    <cfRule type="duplicateValues" dxfId="202" priority="265"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J54">
-    <cfRule type="duplicateValues" dxfId="187" priority="225"/>
+    <cfRule type="duplicateValues" dxfId="201" priority="245"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="duplicateValues" dxfId="186" priority="226"/>
+    <cfRule type="duplicateValues" dxfId="200" priority="246"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55">
-    <cfRule type="duplicateValues" dxfId="185" priority="223"/>
+    <cfRule type="duplicateValues" dxfId="199" priority="243"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J55">
-    <cfRule type="duplicateValues" dxfId="184" priority="224"/>
+    <cfRule type="duplicateValues" dxfId="198" priority="244"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H68">
+    <cfRule type="duplicateValues" dxfId="197" priority="239"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J68">
+    <cfRule type="duplicateValues" dxfId="196" priority="240"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J74">
+    <cfRule type="duplicateValues" dxfId="195" priority="235"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H74">
+    <cfRule type="duplicateValues" dxfId="194" priority="236"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H77">
+    <cfRule type="duplicateValues" dxfId="193" priority="233"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J77">
+    <cfRule type="duplicateValues" dxfId="192" priority="234"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J79">
+    <cfRule type="duplicateValues" dxfId="191" priority="231"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H79">
+    <cfRule type="duplicateValues" dxfId="190" priority="232"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14">
+    <cfRule type="duplicateValues" dxfId="189" priority="230"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H93">
+    <cfRule type="duplicateValues" dxfId="188" priority="227"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J93">
+    <cfRule type="duplicateValues" dxfId="187" priority="228"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J76">
+    <cfRule type="duplicateValues" dxfId="186" priority="224"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H76">
+    <cfRule type="duplicateValues" dxfId="185" priority="221"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H76">
+    <cfRule type="duplicateValues" dxfId="184" priority="222"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="223"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J72">
+    <cfRule type="duplicateValues" dxfId="182" priority="220"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H72">
+    <cfRule type="duplicateValues" dxfId="181" priority="216"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H72">
+    <cfRule type="duplicateValues" dxfId="180" priority="217"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="218"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H73">
+    <cfRule type="duplicateValues" dxfId="178" priority="213"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H73">
+    <cfRule type="duplicateValues" dxfId="177" priority="214"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="215"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J70">
+    <cfRule type="duplicateValues" dxfId="175" priority="211"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H70">
+    <cfRule type="duplicateValues" dxfId="174" priority="212"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H71">
+    <cfRule type="duplicateValues" dxfId="173" priority="207"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H71">
+    <cfRule type="duplicateValues" dxfId="172" priority="208"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="209"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J75">
+    <cfRule type="duplicateValues" dxfId="170" priority="205"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H75">
+    <cfRule type="duplicateValues" dxfId="169" priority="206"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J89">
+    <cfRule type="duplicateValues" dxfId="168" priority="200"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J91:J92">
+    <cfRule type="duplicateValues" dxfId="167" priority="186"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H91:H92">
+    <cfRule type="duplicateValues" dxfId="166" priority="182"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H91:H92">
+    <cfRule type="duplicateValues" dxfId="165" priority="183"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="184"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J83">
+    <cfRule type="duplicateValues" dxfId="163" priority="166"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H83">
+    <cfRule type="duplicateValues" dxfId="162" priority="167"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J81">
+    <cfRule type="duplicateValues" dxfId="161" priority="165"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J84">
+    <cfRule type="duplicateValues" dxfId="160" priority="154"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H84">
+    <cfRule type="duplicateValues" dxfId="159" priority="155"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H80">
+    <cfRule type="duplicateValues" dxfId="158" priority="151"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H80">
+    <cfRule type="duplicateValues" dxfId="157" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="153"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H81">
+    <cfRule type="duplicateValues" dxfId="155" priority="148"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H81">
+    <cfRule type="duplicateValues" dxfId="154" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="150"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H82">
+    <cfRule type="duplicateValues" dxfId="152" priority="145"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H82">
+    <cfRule type="duplicateValues" dxfId="151" priority="146"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="147"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J52">
+    <cfRule type="duplicateValues" dxfId="149" priority="113"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52">
+    <cfRule type="duplicateValues" dxfId="148" priority="114"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J85">
+    <cfRule type="duplicateValues" dxfId="147" priority="111"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H85">
+    <cfRule type="duplicateValues" dxfId="146" priority="112"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="duplicateValues" dxfId="145" priority="107"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="duplicateValues" dxfId="144" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="109"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
+    <cfRule type="duplicateValues" dxfId="142" priority="106"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:H7">
+    <cfRule type="duplicateValues" dxfId="141" priority="110"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="duplicateValues" dxfId="140" priority="102"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3">
+    <cfRule type="duplicateValues" dxfId="139" priority="105"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="duplicateValues" dxfId="138" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="104"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="duplicateValues" dxfId="136" priority="101"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="duplicateValues" dxfId="135" priority="98"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="duplicateValues" dxfId="134" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="100"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9">
+    <cfRule type="duplicateValues" dxfId="132" priority="96"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="duplicateValues" dxfId="131" priority="95"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="duplicateValues" dxfId="130" priority="92"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="duplicateValues" dxfId="129" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="94"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="duplicateValues" dxfId="127" priority="89"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="duplicateValues" dxfId="126" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="91"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21">
+    <cfRule type="duplicateValues" dxfId="124" priority="81"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
+    <cfRule type="duplicateValues" dxfId="123" priority="82"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="duplicateValues" dxfId="122" priority="77"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="duplicateValues" dxfId="121" priority="309"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="310"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10">
+    <cfRule type="duplicateValues" dxfId="119" priority="72"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="duplicateValues" dxfId="118" priority="69"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="duplicateValues" dxfId="117" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="71"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="duplicateValues" dxfId="115" priority="66"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="duplicateValues" dxfId="114" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="68"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47">
+    <cfRule type="duplicateValues" dxfId="112" priority="65"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29">
+    <cfRule type="duplicateValues" dxfId="111" priority="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40">
+    <cfRule type="duplicateValues" dxfId="110" priority="61"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40">
+    <cfRule type="duplicateValues" dxfId="109" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="63"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39">
+    <cfRule type="duplicateValues" dxfId="107" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39">
+    <cfRule type="duplicateValues" dxfId="106" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="60"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
+    <cfRule type="duplicateValues" dxfId="104" priority="55"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
+    <cfRule type="duplicateValues" dxfId="103" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="57"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J40">
+    <cfRule type="duplicateValues" dxfId="101" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J40">
+    <cfRule type="duplicateValues" dxfId="100" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="54"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J37">
+    <cfRule type="duplicateValues" dxfId="98" priority="51"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38">
+    <cfRule type="duplicateValues" dxfId="97" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38">
+    <cfRule type="duplicateValues" dxfId="96" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41">
+    <cfRule type="duplicateValues" dxfId="94" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41">
+    <cfRule type="duplicateValues" dxfId="93" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="47"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46">
+    <cfRule type="duplicateValues" dxfId="91" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46">
+    <cfRule type="duplicateValues" dxfId="90" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44">
+    <cfRule type="duplicateValues" dxfId="88" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44">
+    <cfRule type="duplicateValues" dxfId="87" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="41"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
+    <cfRule type="duplicateValues" dxfId="85" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
+    <cfRule type="duplicateValues" dxfId="84" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34">
+    <cfRule type="duplicateValues" dxfId="82" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34">
+    <cfRule type="duplicateValues" dxfId="81" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J33">
+    <cfRule type="duplicateValues" dxfId="79" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J88">
+    <cfRule type="duplicateValues" dxfId="78" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H88">
+    <cfRule type="duplicateValues" dxfId="77" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H87">
+    <cfRule type="duplicateValues" dxfId="76" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H87">
+    <cfRule type="duplicateValues" dxfId="75" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H86">
+    <cfRule type="duplicateValues" dxfId="73" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H86">
+    <cfRule type="duplicateValues" dxfId="72" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H64">
+    <cfRule type="duplicateValues" dxfId="70" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J64">
+    <cfRule type="duplicateValues" dxfId="69" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J67">
+    <cfRule type="duplicateValues" dxfId="68" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H67">
+    <cfRule type="duplicateValues" dxfId="67" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59">
+    <cfRule type="duplicateValues" dxfId="66" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J59">
+    <cfRule type="duplicateValues" dxfId="65" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J65">
+    <cfRule type="duplicateValues" dxfId="64" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H65">
+    <cfRule type="duplicateValues" dxfId="63" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J58">
+    <cfRule type="duplicateValues" dxfId="62" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="duplicateValues" dxfId="183" priority="219"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J58">
-    <cfRule type="duplicateValues" dxfId="182" priority="220"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J64">
-    <cfRule type="duplicateValues" dxfId="181" priority="215"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H64">
-    <cfRule type="duplicateValues" dxfId="180" priority="216"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H67">
-    <cfRule type="duplicateValues" dxfId="179" priority="213"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J67">
-    <cfRule type="duplicateValues" dxfId="178" priority="214"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J69">
-    <cfRule type="duplicateValues" dxfId="177" priority="211"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H69">
-    <cfRule type="duplicateValues" dxfId="176" priority="212"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14">
-    <cfRule type="duplicateValues" dxfId="175" priority="210"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H83">
-    <cfRule type="duplicateValues" dxfId="174" priority="207"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J83">
-    <cfRule type="duplicateValues" dxfId="173" priority="208"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J66">
-    <cfRule type="duplicateValues" dxfId="172" priority="204"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H66">
-    <cfRule type="duplicateValues" dxfId="171" priority="201"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H66">
-    <cfRule type="duplicateValues" dxfId="170" priority="202"/>
-    <cfRule type="duplicateValues" dxfId="169" priority="203"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J62">
-    <cfRule type="duplicateValues" dxfId="168" priority="200"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H62">
-    <cfRule type="duplicateValues" dxfId="167" priority="196"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H62">
-    <cfRule type="duplicateValues" dxfId="166" priority="197"/>
-    <cfRule type="duplicateValues" dxfId="165" priority="198"/>
+  <conditionalFormatting sqref="J63">
+    <cfRule type="duplicateValues" dxfId="60" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="duplicateValues" dxfId="164" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H63">
-    <cfRule type="duplicateValues" dxfId="163" priority="194"/>
-    <cfRule type="duplicateValues" dxfId="162" priority="195"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J60">
-    <cfRule type="duplicateValues" dxfId="161" priority="191"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H60">
-    <cfRule type="duplicateValues" dxfId="160" priority="192"/>
+  <conditionalFormatting sqref="J61">
+    <cfRule type="duplicateValues" dxfId="58" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61">
-    <cfRule type="duplicateValues" dxfId="159" priority="187"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H61">
-    <cfRule type="duplicateValues" dxfId="158" priority="188"/>
-    <cfRule type="duplicateValues" dxfId="157" priority="189"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J65">
-    <cfRule type="duplicateValues" dxfId="156" priority="185"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H65">
-    <cfRule type="duplicateValues" dxfId="155" priority="186"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J79">
-    <cfRule type="duplicateValues" dxfId="154" priority="180"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J81:J82">
-    <cfRule type="duplicateValues" dxfId="153" priority="166"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H81:H82">
-    <cfRule type="duplicateValues" dxfId="152" priority="162"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H81:H82">
-    <cfRule type="duplicateValues" dxfId="151" priority="163"/>
-    <cfRule type="duplicateValues" dxfId="150" priority="164"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J73">
-    <cfRule type="duplicateValues" dxfId="149" priority="146"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H73">
-    <cfRule type="duplicateValues" dxfId="148" priority="147"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J71">
-    <cfRule type="duplicateValues" dxfId="147" priority="145"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J74">
-    <cfRule type="duplicateValues" dxfId="146" priority="134"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H74">
-    <cfRule type="duplicateValues" dxfId="145" priority="135"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H70">
-    <cfRule type="duplicateValues" dxfId="144" priority="131"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H70">
-    <cfRule type="duplicateValues" dxfId="143" priority="132"/>
-    <cfRule type="duplicateValues" dxfId="142" priority="133"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H71">
-    <cfRule type="duplicateValues" dxfId="141" priority="128"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H71">
-    <cfRule type="duplicateValues" dxfId="140" priority="129"/>
-    <cfRule type="duplicateValues" dxfId="139" priority="130"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H72">
-    <cfRule type="duplicateValues" dxfId="138" priority="125"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H72">
-    <cfRule type="duplicateValues" dxfId="137" priority="126"/>
-    <cfRule type="duplicateValues" dxfId="136" priority="127"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J52">
-    <cfRule type="duplicateValues" dxfId="135" priority="93"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H52">
-    <cfRule type="duplicateValues" dxfId="134" priority="94"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J75">
-    <cfRule type="duplicateValues" dxfId="133" priority="91"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
-    <cfRule type="duplicateValues" dxfId="132" priority="92"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="131" priority="87"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="130" priority="88"/>
-    <cfRule type="duplicateValues" dxfId="129" priority="89"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="duplicateValues" dxfId="128" priority="86"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6:H7">
-    <cfRule type="duplicateValues" dxfId="127" priority="90"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="126" priority="82"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3">
-    <cfRule type="duplicateValues" dxfId="125" priority="85"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="124" priority="83"/>
-    <cfRule type="duplicateValues" dxfId="123" priority="84"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="duplicateValues" dxfId="122" priority="81"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="duplicateValues" dxfId="121" priority="78"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="duplicateValues" dxfId="120" priority="79"/>
-    <cfRule type="duplicateValues" dxfId="119" priority="80"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9">
-    <cfRule type="duplicateValues" dxfId="118" priority="76"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="duplicateValues" dxfId="117" priority="75"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="duplicateValues" dxfId="116" priority="72"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="duplicateValues" dxfId="115" priority="73"/>
-    <cfRule type="duplicateValues" dxfId="114" priority="74"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="duplicateValues" dxfId="113" priority="69"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="duplicateValues" dxfId="112" priority="70"/>
-    <cfRule type="duplicateValues" dxfId="111" priority="71"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J21">
-    <cfRule type="duplicateValues" dxfId="110" priority="61"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
-    <cfRule type="duplicateValues" dxfId="109" priority="62"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="duplicateValues" dxfId="108" priority="57"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="duplicateValues" dxfId="107" priority="289"/>
-    <cfRule type="duplicateValues" dxfId="106" priority="290"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10">
-    <cfRule type="duplicateValues" dxfId="105" priority="52"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="duplicateValues" dxfId="104" priority="49"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="duplicateValues" dxfId="103" priority="50"/>
-    <cfRule type="duplicateValues" dxfId="102" priority="51"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="duplicateValues" dxfId="101" priority="46"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="duplicateValues" dxfId="100" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="99" priority="48"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
-    <cfRule type="duplicateValues" dxfId="98" priority="45"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J29">
-    <cfRule type="duplicateValues" dxfId="97" priority="44"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
-    <cfRule type="duplicateValues" dxfId="96" priority="41"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
-    <cfRule type="duplicateValues" dxfId="95" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="94" priority="43"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
-    <cfRule type="duplicateValues" dxfId="93" priority="38"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
-    <cfRule type="duplicateValues" dxfId="92" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="91" priority="40"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="duplicateValues" dxfId="90" priority="35"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="duplicateValues" dxfId="89" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="88" priority="37"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J40">
-    <cfRule type="duplicateValues" dxfId="87" priority="32"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J40">
-    <cfRule type="duplicateValues" dxfId="86" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="85" priority="34"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J37">
-    <cfRule type="duplicateValues" dxfId="84" priority="31"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
-    <cfRule type="duplicateValues" dxfId="83" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
-    <cfRule type="duplicateValues" dxfId="82" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="81" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
-    <cfRule type="duplicateValues" dxfId="80" priority="25"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
-    <cfRule type="duplicateValues" dxfId="79" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="78" priority="27"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
-    <cfRule type="duplicateValues" dxfId="77" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
-    <cfRule type="duplicateValues" dxfId="76" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="75" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="duplicateValues" dxfId="74" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="duplicateValues" dxfId="73" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="72" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
-    <cfRule type="duplicateValues" dxfId="71" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
-    <cfRule type="duplicateValues" dxfId="70" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
-    <cfRule type="duplicateValues" dxfId="68" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
-    <cfRule type="duplicateValues" dxfId="67" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="66" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J33">
-    <cfRule type="duplicateValues" dxfId="65" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J78">
-    <cfRule type="duplicateValues" dxfId="64" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H78">
-    <cfRule type="duplicateValues" dxfId="63" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H77">
-    <cfRule type="duplicateValues" dxfId="62" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H77">
-    <cfRule type="duplicateValues" dxfId="61" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="60" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
-    <cfRule type="duplicateValues" dxfId="59" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
-    <cfRule type="duplicateValues" dxfId="58" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation showInputMessage="1" sqref="I209 I2 I5 I10" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation showInputMessage="1" sqref="I219 I2 I5 I10" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="F1:G27 F28 F29:G31 F36 F32 F33:G35 F37:G1048576" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -23748,10 +24383,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet28"/>
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -24524,7 +25159,7 @@
         <v>84</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>26</v>
@@ -24734,7 +25369,7 @@
         <v>84</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>26</v>
@@ -24753,13 +25388,13 @@
     </row>
     <row r="72" spans="1:4" s="8" customFormat="1">
       <c r="A72" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>26</v>
@@ -24781,13 +25416,13 @@
     </row>
     <row r="74" spans="1:4" s="8" customFormat="1">
       <c r="A74" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>26</v>
@@ -24795,13 +25430,13 @@
     </row>
     <row r="75" spans="1:4" s="8" customFormat="1">
       <c r="A75" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>26</v>
@@ -24815,7 +25450,7 @@
         <v>84</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>26</v>
@@ -24823,15 +25458,43 @@
     </row>
     <row r="77" spans="1:4" s="8" customFormat="1">
       <c r="A77" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/GL90_Script_EditUnpostedJournal_21B.xlsx
+++ b/GL90_Script_EditUnpostedJournal_21B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF_Selenium_IGA-master\venv\Selenium\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D68554-A617-4FC6-800D-0ECDEEA6B92E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBF4906-E04B-4FDC-95D3-CF46C94A74BC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,14 +18,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AllObjects!$A$1:$D$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">EditUnpostedJournal!$A$1:$N$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">EditUnpostedJournal!$A$1:$N$90</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="376">
   <si>
     <t>SCREENSHOT</t>
   </si>
@@ -652,15 +652,6 @@
   </si>
   <si>
     <t>Post</t>
-  </si>
-  <si>
-    <t>Explicit wait for Post</t>
-  </si>
-  <si>
-    <t>Click on Post</t>
-  </si>
-  <si>
-    <t>Clicked on Post</t>
   </si>
   <si>
     <t>Wait</t>
@@ -1078,12 +1069,6 @@
     <t>Step 70</t>
   </si>
   <si>
-    <t>Click on OK</t>
-  </si>
-  <si>
-    <t>Clicked on OK</t>
-  </si>
-  <si>
     <t>//button[contains(@id,'userResponsePopupDialogButtonOk')]</t>
   </si>
   <si>
@@ -1144,48 +1129,9 @@
     <t>Step 85</t>
   </si>
   <si>
-    <t>Step 86</t>
-  </si>
-  <si>
-    <t>Step 87</t>
-  </si>
-  <si>
-    <t>Step 88</t>
-  </si>
-  <si>
-    <t>Step 89</t>
-  </si>
-  <si>
-    <t>Step 90</t>
-  </si>
-  <si>
-    <t>Step 91</t>
-  </si>
-  <si>
-    <t>Step 92</t>
-  </si>
-  <si>
-    <t>Step 93</t>
-  </si>
-  <si>
-    <t>Step 94</t>
-  </si>
-  <si>
-    <t>Step 95</t>
-  </si>
-  <si>
-    <t>Step 96</t>
-  </si>
-  <si>
     <t>Exists||Step 69-Step 70||Step 71-Step 72</t>
   </si>
   <si>
-    <t>Exists||Step 78-Step 79||Step 80-Step 81</t>
-  </si>
-  <si>
-    <t>Exists||Step 84-Step 85||Step 86-Step 87</t>
-  </si>
-  <si>
     <t>//*[contains(@id,'_ATp:t3:1:EnteredCr::content')]</t>
   </si>
   <si>
@@ -1205,6 +1151,9 @@
   </si>
   <si>
     <t>//*[contains(@id,'jeLineAppTable:_ATp:t3:1:accountCS::content')]</t>
+  </si>
+  <si>
+    <t>PAGE_UP</t>
   </si>
 </sst>
 </file>
@@ -17495,247 +17444,7 @@
     <cellStyle name="Warning Text 9" xfId="5939" xr:uid="{00000000-0005-0000-0000-0000921E0000}"/>
     <cellStyle name="Warning Text 9 2" xfId="7821" xr:uid="{00000000-0005-0000-0000-0000931E0000}"/>
   </cellStyles>
-  <dxfs count="214">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="190">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -19980,10 +19689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N251"/>
+  <dimension ref="A1:N242"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -20046,7 +19755,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -20076,7 +19785,7 @@
         <v>39</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K2" s="5"/>
       <c r="M2"/>
@@ -20108,7 +19817,7 @@
         <v>39</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3"/>
@@ -20125,10 +19834,10 @@
         <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>26</v>
@@ -20279,7 +19988,7 @@
         <v>39</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K8" s="2"/>
       <c r="M8" t="s">
@@ -20329,10 +20038,10 @@
         <v>52</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>26</v>
@@ -20341,13 +20050,13 @@
         <v>47</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K10" s="2"/>
       <c r="M10" s="2" t="s">
@@ -20363,10 +20072,10 @@
         <v>54</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>26</v>
@@ -20375,7 +20084,7 @@
         <v>24</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="I11" s="2"/>
       <c r="K11" s="2"/>
@@ -20404,13 +20113,13 @@
         <v>47</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K12" s="2"/>
       <c r="M12" t="s">
@@ -20423,7 +20132,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>71</v>
@@ -20438,7 +20147,7 @@
         <v>24</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="M13" t="s">
         <v>206</v>
@@ -20453,7 +20162,7 @@
         <v>56</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>46</v>
@@ -20471,7 +20180,7 @@
         <v>39</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K14" s="2"/>
       <c r="M14" t="s">
@@ -20534,7 +20243,7 @@
         <v>39</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M16" t="s">
         <v>206</v>
@@ -20577,7 +20286,7 @@
         <v>120</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>93</v>
@@ -20598,7 +20307,7 @@
         <v>39</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M18" t="s">
         <v>206</v>
@@ -20641,7 +20350,7 @@
         <v>120</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>93</v>
@@ -20656,13 +20365,13 @@
         <v>47</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M20" t="s">
         <v>206</v>
@@ -20679,23 +20388,23 @@
         <v>111</v>
       </c>
       <c r="D21" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E21" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H21"/>
       <c r="I21" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K21"/>
       <c r="L21"/>
@@ -20711,7 +20420,7 @@
         <v>120</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>156</v>
@@ -20732,10 +20441,10 @@
         <v>39</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -20764,7 +20473,7 @@
         <v>153</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -20796,10 +20505,10 @@
         <v>39</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -20825,16 +20534,16 @@
         <v>47</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -20848,26 +20557,26 @@
         <v>113</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>322</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>325</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -20881,10 +20590,10 @@
         <v>114</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>26</v>
@@ -20893,10 +20602,10 @@
         <v>24</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -20907,13 +20616,13 @@
         <v>120</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>26</v>
@@ -20922,17 +20631,17 @@
         <v>42</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="K28" s="5"/>
       <c r="M28" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -20943,26 +20652,26 @@
         <v>120</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D29" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E29" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F29" t="s">
         <v>16</v>
       </c>
       <c r="G29" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="I29"/>
       <c r="J29" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="K29"/>
       <c r="L29"/>
@@ -20978,29 +20687,29 @@
         <v>120</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>322</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>325</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -21011,13 +20720,13 @@
         <v>120</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>26</v>
@@ -21026,10 +20735,10 @@
         <v>24</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -21040,13 +20749,13 @@
         <v>120</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>26</v>
@@ -21055,17 +20764,17 @@
         <v>42</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="K32" s="5"/>
       <c r="M32" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -21076,26 +20785,26 @@
         <v>120</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D33" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E33" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F33" t="s">
         <v>16</v>
       </c>
       <c r="G33" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="I33"/>
       <c r="J33" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="K33"/>
       <c r="L33"/>
@@ -21111,29 +20820,29 @@
         <v>120</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>322</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>325</v>
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -21144,7 +20853,7 @@
         <v>120</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>168</v>
@@ -21165,10 +20874,10 @@
         <v>39</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -21182,10 +20891,10 @@
         <v>137</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>26</v>
@@ -21204,7 +20913,7 @@
       </c>
       <c r="K36" s="5"/>
       <c r="M36" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -21218,23 +20927,23 @@
         <v>138</v>
       </c>
       <c r="D37" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E37" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F37" t="s">
         <v>16</v>
       </c>
       <c r="G37" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>60</v>
       </c>
       <c r="I37"/>
       <c r="J37" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="K37"/>
       <c r="L37"/>
@@ -21250,29 +20959,29 @@
         <v>120</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="G38" s="4" t="s">
         <v>322</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>325</v>
       </c>
       <c r="H38" s="4"/>
       <c r="I38" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -21283,7 +20992,7 @@
         <v>120</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>46</v>
@@ -21298,13 +21007,13 @@
         <v>47</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>206</v>
@@ -21318,28 +21027,28 @@
         <v>120</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I40" s="3" t="s">
         <v>39</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M40" s="2" t="s">
         <v>206</v>
@@ -21353,29 +21062,29 @@
         <v>120</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="G41" s="4" t="s">
         <v>322</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>325</v>
       </c>
       <c r="H41" s="4"/>
       <c r="I41" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -21386,7 +21095,7 @@
         <v>120</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>46</v>
@@ -21407,10 +21116,10 @@
         <v>39</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -21421,7 +21130,7 @@
         <v>120</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>61</v>
@@ -21433,7 +21142,7 @@
         <v>26</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>59</v>
@@ -21443,7 +21152,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="M43" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -21454,29 +21163,29 @@
         <v>120</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="G44" s="4" t="s">
         <v>322</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>325</v>
       </c>
       <c r="H44" s="4"/>
       <c r="I44" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -21487,32 +21196,32 @@
         <v>120</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="K45" s="2"/>
       <c r="M45" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -21523,29 +21232,29 @@
         <v>120</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="G46" s="4" t="s">
         <v>322</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>325</v>
       </c>
       <c r="H46" s="4"/>
       <c r="I46" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -21556,7 +21265,7 @@
         <v>120</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>99</v>
@@ -21577,10 +21286,10 @@
         <v>39</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -21591,7 +21300,7 @@
         <v>120</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>103</v>
@@ -21612,7 +21321,7 @@
         <v>39</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M48" t="s">
         <v>206</v>
@@ -21626,7 +21335,7 @@
         <v>120</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>102</v>
@@ -21655,7 +21364,7 @@
         <v>120</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>177</v>
@@ -21676,7 +21385,7 @@
         <v>39</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L50" s="7"/>
       <c r="M50" t="s">
@@ -21691,7 +21400,7 @@
         <v>120</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>179</v>
@@ -21721,26 +21430,26 @@
         <v>120</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D52" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E52" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H52"/>
       <c r="I52" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K52"/>
       <c r="L52"/>
@@ -21753,16 +21462,16 @@
         <v>186</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>26</v>
@@ -21793,26 +21502,26 @@
         <v>120</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D54" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E54" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H54"/>
       <c r="I54" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K54"/>
       <c r="L54"/>
@@ -21828,7 +21537,7 @@
         <v>120</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>190</v>
@@ -21849,7 +21558,7 @@
         <v>39</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="L55" s="7"/>
       <c r="M55" t="s">
@@ -21864,7 +21573,7 @@
         <v>120</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>192</v>
@@ -21894,7 +21603,7 @@
         <v>120</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>194</v>
@@ -21931,26 +21640,26 @@
         <v>120</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D58" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E58" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H58"/>
       <c r="I58" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K58"/>
       <c r="L58"/>
@@ -21966,10 +21675,10 @@
         <v>120</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>46</v>
@@ -21981,13 +21690,13 @@
         <v>47</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="L59" s="7"/>
       <c r="M59" t="s">
@@ -22002,13 +21711,13 @@
         <v>120</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>26</v>
@@ -22017,7 +21726,7 @@
         <v>24</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="L60" s="7"/>
       <c r="M60" t="s">
@@ -22032,26 +21741,26 @@
         <v>120</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D61" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E61" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H61"/>
       <c r="I61" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K61"/>
       <c r="L61"/>
@@ -22067,13 +21776,13 @@
         <v>120</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>26</v>
@@ -22082,13 +21791,13 @@
         <v>42</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="I62" t="s">
         <v>39</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="K62" s="5"/>
       <c r="L62"/>
@@ -22104,26 +21813,26 @@
         <v>120</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D63" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E63" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H63"/>
       <c r="I63" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K63"/>
       <c r="L63"/>
@@ -22139,7 +21848,7 @@
         <v>120</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>177</v>
@@ -22154,13 +21863,13 @@
         <v>47</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L64" s="7"/>
       <c r="M64" t="s">
@@ -22175,26 +21884,26 @@
         <v>120</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D65" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E65" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H65"/>
       <c r="I65" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K65"/>
       <c r="L65"/>
@@ -22207,16 +21916,16 @@
         <v>186</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>26</v>
@@ -22225,7 +21934,7 @@
         <v>42</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="I66" t="s">
         <v>39</v>
@@ -22247,26 +21956,26 @@
         <v>120</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D67" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E67" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H67"/>
       <c r="I67" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K67"/>
       <c r="L67"/>
@@ -22282,28 +21991,25 @@
         <v>120</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>301</v>
+        <v>240</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>46</v>
+        <v>329</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>329</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>47</v>
+        <v>329</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>39</v>
+        <v>352</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>309</v>
+        <v>375</v>
       </c>
       <c r="L68" s="7"/>
       <c r="M68" t="s">
@@ -22318,24 +22024,29 @@
         <v>120</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="L69" s="7"/>
+        <v>297</v>
+      </c>
+      <c r="D69" t="s">
+        <v>209</v>
+      </c>
+      <c r="E69" t="s">
+        <v>225</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="H69"/>
+      <c r="I69" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="K69"/>
+      <c r="L69"/>
       <c r="M69" t="s">
         <v>206</v>
       </c>
@@ -22348,29 +22059,30 @@
         <v>120</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D70" t="s">
-        <v>228</v>
-      </c>
-      <c r="E70" t="s">
-        <v>228</v>
-      </c>
-      <c r="F70" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="G70" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="H70"/>
+        <v>298</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>203</v>
+      </c>
       <c r="I70" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="K70"/>
-      <c r="L70"/>
+        <v>306</v>
+      </c>
+      <c r="L70" s="7"/>
       <c r="M70" t="s">
         <v>206</v>
       </c>
@@ -22383,26 +22095,24 @@
         <v>120</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>205</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>383</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="L71" s="7"/>
       <c r="M71" t="s">
         <v>206</v>
       </c>
@@ -22415,30 +22125,29 @@
         <v>120</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>239</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="D72" t="s">
+        <v>225</v>
+      </c>
+      <c r="E72" t="s">
+        <v>225</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="H72"/>
       <c r="I72" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="L72" s="7"/>
+      <c r="K72"/>
+      <c r="L72"/>
       <c r="M72" t="s">
         <v>206</v>
       </c>
@@ -22451,24 +22160,26 @@
         <v>120</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>205</v>
+        <v>300</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>24</v>
+        <v>299</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="L73" s="7"/>
+        <v>236</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>367</v>
+      </c>
       <c r="M73" t="s">
         <v>206</v>
       </c>
@@ -22481,27 +22192,30 @@
         <v>120</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>228</v>
+        <v>345</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>202</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>325</v>
+        <v>46</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>236</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="K74" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="L74" s="7"/>
       <c r="M74" t="s">
         <v>206</v>
       </c>
@@ -22514,27 +22228,24 @@
         <v>120</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="K75" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="L75" s="7"/>
       <c r="M75" t="s">
         <v>206</v>
       </c>
@@ -22544,33 +22255,30 @@
         <v>186</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>237</v>
+        <v>120</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>202</v>
+        <v>348</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>155</v>
+        <v>225</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>322</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="L76" s="7"/>
+        <v>307</v>
+      </c>
+      <c r="K76" s="2"/>
       <c r="M76" t="s">
         <v>206</v>
       </c>
@@ -22583,30 +22291,27 @@
         <v>120</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>209</v>
+        <v>353</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>208</v>
+        <v>225</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>322</v>
       </c>
       <c r="I77" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="L77" s="7"/>
+        <v>307</v>
+      </c>
+      <c r="K77" s="2"/>
       <c r="M77" t="s">
         <v>206</v>
       </c>
@@ -22616,25 +22321,31 @@
         <v>186</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>120</v>
+        <v>234</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>211</v>
+        <v>202</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>208</v>
+        <v>47</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>306</v>
       </c>
       <c r="L78" s="7"/>
       <c r="M78" t="s">
@@ -22649,29 +22360,27 @@
         <v>120</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="D79" t="s">
-        <v>212</v>
-      </c>
-      <c r="E79" t="s">
-        <v>212</v>
-      </c>
-      <c r="F79" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="G79" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="H79"/>
+        <v>355</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>322</v>
+      </c>
       <c r="I79" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="K79"/>
-      <c r="L79"/>
+        <v>307</v>
+      </c>
+      <c r="K79" s="2"/>
       <c r="M79" t="s">
         <v>206</v>
       </c>
@@ -22684,26 +22393,30 @@
         <v>120</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>241</v>
+        <v>356</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>230</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>242</v>
+        <v>46</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>206</v>
+        <v>47</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>384</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="L80" s="7"/>
       <c r="M80" t="s">
         <v>206</v>
       </c>
@@ -22716,30 +22429,30 @@
         <v>120</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>202</v>
+        <v>357</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>206</v>
+        <v>24</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="L81" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="K81" s="2"/>
       <c r="M81" t="s">
         <v>206</v>
       </c>
@@ -22752,22 +22465,28 @@
         <v>120</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>205</v>
+        <v>230</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>206</v>
+        <v>151</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>306</v>
       </c>
       <c r="L82" s="7"/>
       <c r="M82" t="s">
@@ -22782,147 +22501,144 @@
         <v>120</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J83" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="K83" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I83" s="2"/>
+      <c r="L83" s="7"/>
       <c r="M83" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="84" spans="1:13">
-      <c r="A84" s="4" t="s">
-        <v>186</v>
-      </c>
+      <c r="A84" s="4"/>
       <c r="B84" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>228</v>
+        <v>360</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>230</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>325</v>
+        <v>46</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="I84" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="K84" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="L84" s="7"/>
       <c r="M84" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="85" spans="1:13">
-      <c r="A85" s="4" t="s">
-        <v>186</v>
-      </c>
+      <c r="A85" s="4"/>
       <c r="B85" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="D85" t="s">
-        <v>212</v>
-      </c>
-      <c r="E85" t="s">
-        <v>212</v>
-      </c>
-      <c r="F85" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="G85" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="H85"/>
+        <v>361</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="I85" s="2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="K85"/>
-      <c r="L85"/>
+        <v>25</v>
+      </c>
+      <c r="K85" s="2"/>
       <c r="M85" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="86" spans="1:13">
-      <c r="A86" s="4" t="s">
-        <v>186</v>
-      </c>
+      <c r="A86" s="4"/>
       <c r="B86" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>351</v>
+        <v>362</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>302</v>
+        <v>47</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>234</v>
+        <v>127</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="L86" s="7"/>
-      <c r="M86" t="s">
-        <v>206</v>
+        <v>306</v>
+      </c>
+      <c r="K86" s="2"/>
+      <c r="M86" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="87" spans="1:13">
-      <c r="A87" s="4" t="s">
-        <v>186</v>
-      </c>
+      <c r="A87" s="4"/>
       <c r="B87" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>351</v>
+        <v>363</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>26</v>
@@ -22931,106 +22647,106 @@
         <v>24</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="L87" s="7"/>
-      <c r="M87" t="s">
-        <v>206</v>
+        <v>127</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K87" s="2"/>
+      <c r="M87" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="88" spans="1:13">
-      <c r="A88" s="4" t="s">
-        <v>186</v>
-      </c>
+      <c r="A88" s="4"/>
       <c r="B88" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>228</v>
+        <v>131</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="G88" s="4" t="s">
-        <v>325</v>
+        <v>132</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="I88" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="K88" s="2"/>
-      <c r="M88" t="s">
-        <v>206</v>
+      <c r="M88" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="89" spans="1:13">
-      <c r="A89" s="4" t="s">
-        <v>186</v>
-      </c>
+      <c r="A89" s="4"/>
       <c r="B89" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>233</v>
+        <v>365</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>46</v>
+        <v>135</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H89" s="4" t="s">
-        <v>68</v>
+        <v>24</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="L89" s="7"/>
-      <c r="M89" t="s">
-        <v>206</v>
+        <v>25</v>
+      </c>
+      <c r="K89" s="2"/>
+      <c r="M89" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="90" spans="1:13">
-      <c r="A90" s="4" t="s">
-        <v>186</v>
-      </c>
+      <c r="A90" s="4"/>
       <c r="B90" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H90" s="4" t="s">
-        <v>68</v>
+        <v>272</v>
       </c>
       <c r="I90" s="2" t="s">
         <v>25</v>
@@ -23039,361 +22755,95 @@
         <v>25</v>
       </c>
       <c r="K90" s="2"/>
-      <c r="M90" t="s">
-        <v>206</v>
+      <c r="M90" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="91" spans="1:13">
-      <c r="A91" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J91" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="L91" s="7"/>
-      <c r="M91" t="s">
-        <v>206</v>
-      </c>
+      <c r="I91" s="2"/>
+      <c r="K91" s="2"/>
     </row>
     <row r="92" spans="1:13">
-      <c r="A92" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="I92" s="2"/>
-      <c r="L92" s="7"/>
-      <c r="M92" t="s">
-        <v>206</v>
-      </c>
+      <c r="K92" s="2"/>
     </row>
     <row r="93" spans="1:13">
-      <c r="A93" s="4"/>
-      <c r="B93" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H93" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="I93" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J93" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="L93" s="7"/>
-      <c r="M93" t="s">
-        <v>206</v>
-      </c>
+      <c r="I93" s="2"/>
+      <c r="K93" s="2"/>
     </row>
     <row r="94" spans="1:13">
-      <c r="A94" s="4"/>
-      <c r="B94" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J94" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="I94" s="2"/>
       <c r="K94" s="2"/>
-      <c r="M94" t="s">
-        <v>206</v>
-      </c>
     </row>
     <row r="95" spans="1:13">
-      <c r="A95" s="4"/>
-      <c r="B95" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J95" s="2" t="s">
-        <v>309</v>
-      </c>
+      <c r="I95" s="2"/>
       <c r="K95" s="2"/>
-      <c r="M95" s="2" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="96" spans="1:13">
-      <c r="A96" s="4"/>
-      <c r="B96" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J96" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="I96" s="2"/>
       <c r="K96" s="2"/>
-      <c r="M96" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
-      <c r="A97" s="4"/>
-      <c r="B97" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="I97" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J97" s="2" t="s">
-        <v>309</v>
-      </c>
+    </row>
+    <row r="97" spans="9:11">
+      <c r="I97" s="2"/>
       <c r="K97" s="2"/>
-      <c r="M97" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
-      <c r="A98" s="4"/>
-      <c r="B98" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J98" s="2" t="s">
-        <v>25</v>
-      </c>
+    </row>
+    <row r="98" spans="9:11">
+      <c r="I98" s="2"/>
       <c r="K98" s="2"/>
-      <c r="M98" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
-      <c r="A99" s="4"/>
-      <c r="B99" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J99" s="2" t="s">
-        <v>25</v>
-      </c>
+    </row>
+    <row r="99" spans="9:11">
+      <c r="I99" s="2"/>
       <c r="K99" s="2"/>
-      <c r="M99" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13">
+    </row>
+    <row r="100" spans="9:11">
       <c r="I100" s="2"/>
       <c r="K100" s="2"/>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="9:11">
       <c r="I101" s="2"/>
       <c r="K101" s="2"/>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="9:11">
       <c r="I102" s="2"/>
       <c r="K102" s="2"/>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="9:11">
       <c r="I103" s="2"/>
       <c r="K103" s="2"/>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="9:11">
       <c r="I104" s="2"/>
       <c r="K104" s="2"/>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="9:11">
       <c r="I105" s="2"/>
       <c r="K105" s="2"/>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="9:11">
       <c r="I106" s="2"/>
       <c r="K106" s="2"/>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="9:11">
       <c r="I107" s="2"/>
       <c r="K107" s="2"/>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="9:11">
       <c r="I108" s="2"/>
       <c r="K108" s="2"/>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="9:11">
       <c r="I109" s="2"/>
       <c r="K109" s="2"/>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="9:11">
       <c r="I110" s="2"/>
       <c r="K110" s="2"/>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="9:11">
       <c r="I111" s="2"/>
       <c r="K111" s="2"/>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="9:11">
       <c r="I112" s="2"/>
       <c r="K112" s="2"/>
     </row>
@@ -23910,6 +23360,8 @@
       <c r="K240" s="2"/>
     </row>
     <row r="241" spans="1:11">
+      <c r="A241" s="4"/>
+      <c r="B241" s="6"/>
       <c r="I241" s="2"/>
       <c r="K241" s="2"/>
     </row>
@@ -23917,461 +23369,361 @@
       <c r="I242" s="2"/>
       <c r="K242" s="2"/>
     </row>
-    <row r="243" spans="1:11">
-      <c r="I243" s="2"/>
-      <c r="K243" s="2"/>
-    </row>
-    <row r="244" spans="1:11">
-      <c r="I244" s="2"/>
-      <c r="K244" s="2"/>
-    </row>
-    <row r="245" spans="1:11">
-      <c r="I245" s="2"/>
-      <c r="K245" s="2"/>
-    </row>
-    <row r="246" spans="1:11">
-      <c r="I246" s="2"/>
-      <c r="K246" s="2"/>
-    </row>
-    <row r="247" spans="1:11">
-      <c r="I247" s="2"/>
-      <c r="K247" s="2"/>
-    </row>
-    <row r="248" spans="1:11">
-      <c r="I248" s="2"/>
-      <c r="K248" s="2"/>
-    </row>
-    <row r="249" spans="1:11">
-      <c r="I249" s="2"/>
-      <c r="K249" s="2"/>
-    </row>
-    <row r="250" spans="1:11">
-      <c r="A250" s="4"/>
-      <c r="B250" s="6"/>
-      <c r="I250" s="2"/>
-      <c r="K250" s="2"/>
-    </row>
-    <row r="251" spans="1:11">
-      <c r="I251" s="2"/>
-      <c r="K251" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="32" type="noConversion"/>
-  <conditionalFormatting sqref="H219:I219">
-    <cfRule type="duplicateValues" dxfId="213" priority="305"/>
+  <conditionalFormatting sqref="H210:I210">
+    <cfRule type="duplicateValues" dxfId="189" priority="307"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H219:I219">
-    <cfRule type="duplicateValues" dxfId="212" priority="306"/>
-    <cfRule type="duplicateValues" dxfId="211" priority="307"/>
+  <conditionalFormatting sqref="H210:I210">
+    <cfRule type="duplicateValues" dxfId="188" priority="308"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="309"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="duplicateValues" dxfId="210" priority="303"/>
+    <cfRule type="duplicateValues" dxfId="186" priority="305"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="duplicateValues" dxfId="209" priority="304"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="306"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="duplicateValues" dxfId="208" priority="302"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="304"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="duplicateValues" dxfId="207" priority="297"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="299"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="duplicateValues" dxfId="206" priority="298"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="300"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="duplicateValues" dxfId="205" priority="293"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="295"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48">
-    <cfRule type="duplicateValues" dxfId="204" priority="294"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="296"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="duplicateValues" dxfId="203" priority="264"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="266"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J50">
-    <cfRule type="duplicateValues" dxfId="202" priority="265"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="267"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J54">
-    <cfRule type="duplicateValues" dxfId="201" priority="245"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="247"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="duplicateValues" dxfId="200" priority="246"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="248"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55">
-    <cfRule type="duplicateValues" dxfId="199" priority="243"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="245"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J55">
-    <cfRule type="duplicateValues" dxfId="198" priority="244"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="246"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
-    <cfRule type="duplicateValues" dxfId="197" priority="239"/>
+  <conditionalFormatting sqref="H70">
+    <cfRule type="duplicateValues" dxfId="173" priority="241"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J68">
-    <cfRule type="duplicateValues" dxfId="196" priority="240"/>
+  <conditionalFormatting sqref="J70">
+    <cfRule type="duplicateValues" dxfId="172" priority="242"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J76">
+    <cfRule type="duplicateValues" dxfId="171" priority="237"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H76">
+    <cfRule type="duplicateValues" dxfId="170" priority="238"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14">
+    <cfRule type="duplicateValues" dxfId="169" priority="232"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H84">
+    <cfRule type="duplicateValues" dxfId="168" priority="229"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J84">
+    <cfRule type="duplicateValues" dxfId="167" priority="230"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J78">
+    <cfRule type="duplicateValues" dxfId="166" priority="226"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H78">
+    <cfRule type="duplicateValues" dxfId="165" priority="223"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H78">
+    <cfRule type="duplicateValues" dxfId="164" priority="224"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="225"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J74">
-    <cfRule type="duplicateValues" dxfId="195" priority="235"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="222"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H74">
-    <cfRule type="duplicateValues" dxfId="194" priority="236"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="218"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H74">
+    <cfRule type="duplicateValues" dxfId="160" priority="219"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="220"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H75">
+    <cfRule type="duplicateValues" dxfId="158" priority="215"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H75">
+    <cfRule type="duplicateValues" dxfId="157" priority="216"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="217"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J72">
+    <cfRule type="duplicateValues" dxfId="155" priority="213"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H72">
+    <cfRule type="duplicateValues" dxfId="154" priority="214"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H73">
+    <cfRule type="duplicateValues" dxfId="153" priority="209"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H73">
+    <cfRule type="duplicateValues" dxfId="152" priority="210"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="211"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J77">
+    <cfRule type="duplicateValues" dxfId="150" priority="207"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H77">
-    <cfRule type="duplicateValues" dxfId="193" priority="233"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="208"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J77">
-    <cfRule type="duplicateValues" dxfId="192" priority="234"/>
+  <conditionalFormatting sqref="J80">
+    <cfRule type="duplicateValues" dxfId="148" priority="202"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J82:J83">
+    <cfRule type="duplicateValues" dxfId="147" priority="188"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H82:H83">
+    <cfRule type="duplicateValues" dxfId="146" priority="184"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H82:H83">
+    <cfRule type="duplicateValues" dxfId="145" priority="185"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="186"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J52">
+    <cfRule type="duplicateValues" dxfId="143" priority="115"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52">
+    <cfRule type="duplicateValues" dxfId="142" priority="116"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="duplicateValues" dxfId="141" priority="109"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="duplicateValues" dxfId="140" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="111"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
+    <cfRule type="duplicateValues" dxfId="138" priority="108"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:H7">
+    <cfRule type="duplicateValues" dxfId="137" priority="112"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="duplicateValues" dxfId="136" priority="104"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3">
+    <cfRule type="duplicateValues" dxfId="135" priority="107"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="duplicateValues" dxfId="134" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="106"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="duplicateValues" dxfId="132" priority="103"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="duplicateValues" dxfId="131" priority="100"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="duplicateValues" dxfId="130" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="102"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9">
+    <cfRule type="duplicateValues" dxfId="128" priority="98"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="duplicateValues" dxfId="127" priority="97"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="duplicateValues" dxfId="126" priority="94"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="duplicateValues" dxfId="125" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="96"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="duplicateValues" dxfId="123" priority="91"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="duplicateValues" dxfId="122" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="93"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21">
+    <cfRule type="duplicateValues" dxfId="120" priority="83"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
+    <cfRule type="duplicateValues" dxfId="119" priority="84"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="duplicateValues" dxfId="118" priority="79"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="duplicateValues" dxfId="117" priority="311"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="312"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10">
+    <cfRule type="duplicateValues" dxfId="115" priority="74"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="duplicateValues" dxfId="114" priority="71"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="duplicateValues" dxfId="113" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="73"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="duplicateValues" dxfId="111" priority="68"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="duplicateValues" dxfId="110" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="70"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47">
+    <cfRule type="duplicateValues" dxfId="108" priority="67"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29">
+    <cfRule type="duplicateValues" dxfId="107" priority="66"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40">
+    <cfRule type="duplicateValues" dxfId="106" priority="63"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40">
+    <cfRule type="duplicateValues" dxfId="105" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="65"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39">
+    <cfRule type="duplicateValues" dxfId="103" priority="60"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39">
+    <cfRule type="duplicateValues" dxfId="102" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="62"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
+    <cfRule type="duplicateValues" dxfId="100" priority="57"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
+    <cfRule type="duplicateValues" dxfId="99" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="59"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J40">
+    <cfRule type="duplicateValues" dxfId="97" priority="54"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J40">
+    <cfRule type="duplicateValues" dxfId="96" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="56"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J37">
+    <cfRule type="duplicateValues" dxfId="94" priority="53"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38">
+    <cfRule type="duplicateValues" dxfId="93" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38">
+    <cfRule type="duplicateValues" dxfId="92" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41">
+    <cfRule type="duplicateValues" dxfId="90" priority="47"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41">
+    <cfRule type="duplicateValues" dxfId="89" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="49"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46">
+    <cfRule type="duplicateValues" dxfId="87" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46">
+    <cfRule type="duplicateValues" dxfId="86" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44">
+    <cfRule type="duplicateValues" dxfId="84" priority="41"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44">
+    <cfRule type="duplicateValues" dxfId="83" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="43"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
+    <cfRule type="duplicateValues" dxfId="81" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
+    <cfRule type="duplicateValues" dxfId="80" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34">
+    <cfRule type="duplicateValues" dxfId="78" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34">
+    <cfRule type="duplicateValues" dxfId="77" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="37"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J33">
+    <cfRule type="duplicateValues" dxfId="75" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J79">
-    <cfRule type="duplicateValues" dxfId="191" priority="231"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H79">
-    <cfRule type="duplicateValues" dxfId="190" priority="232"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14">
-    <cfRule type="duplicateValues" dxfId="189" priority="230"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H93">
-    <cfRule type="duplicateValues" dxfId="188" priority="227"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J93">
-    <cfRule type="duplicateValues" dxfId="187" priority="228"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J76">
-    <cfRule type="duplicateValues" dxfId="186" priority="224"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
-    <cfRule type="duplicateValues" dxfId="185" priority="221"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
-    <cfRule type="duplicateValues" dxfId="184" priority="222"/>
-    <cfRule type="duplicateValues" dxfId="183" priority="223"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J72">
-    <cfRule type="duplicateValues" dxfId="182" priority="220"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H72">
-    <cfRule type="duplicateValues" dxfId="181" priority="216"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H72">
-    <cfRule type="duplicateValues" dxfId="180" priority="217"/>
-    <cfRule type="duplicateValues" dxfId="179" priority="218"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H73">
-    <cfRule type="duplicateValues" dxfId="178" priority="213"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H73">
-    <cfRule type="duplicateValues" dxfId="177" priority="214"/>
-    <cfRule type="duplicateValues" dxfId="176" priority="215"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J70">
-    <cfRule type="duplicateValues" dxfId="175" priority="211"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H70">
-    <cfRule type="duplicateValues" dxfId="174" priority="212"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H71">
-    <cfRule type="duplicateValues" dxfId="173" priority="207"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H71">
-    <cfRule type="duplicateValues" dxfId="172" priority="208"/>
-    <cfRule type="duplicateValues" dxfId="171" priority="209"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J75">
-    <cfRule type="duplicateValues" dxfId="170" priority="205"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
-    <cfRule type="duplicateValues" dxfId="169" priority="206"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J89">
-    <cfRule type="duplicateValues" dxfId="168" priority="200"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J91:J92">
-    <cfRule type="duplicateValues" dxfId="167" priority="186"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H91:H92">
-    <cfRule type="duplicateValues" dxfId="166" priority="182"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H91:H92">
-    <cfRule type="duplicateValues" dxfId="165" priority="183"/>
-    <cfRule type="duplicateValues" dxfId="164" priority="184"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J83">
-    <cfRule type="duplicateValues" dxfId="163" priority="166"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H83">
-    <cfRule type="duplicateValues" dxfId="162" priority="167"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J81">
-    <cfRule type="duplicateValues" dxfId="161" priority="165"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J84">
-    <cfRule type="duplicateValues" dxfId="160" priority="154"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H84">
-    <cfRule type="duplicateValues" dxfId="159" priority="155"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H80">
-    <cfRule type="duplicateValues" dxfId="158" priority="151"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H80">
-    <cfRule type="duplicateValues" dxfId="157" priority="152"/>
-    <cfRule type="duplicateValues" dxfId="156" priority="153"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H81">
-    <cfRule type="duplicateValues" dxfId="155" priority="148"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H81">
-    <cfRule type="duplicateValues" dxfId="154" priority="149"/>
-    <cfRule type="duplicateValues" dxfId="153" priority="150"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H82">
-    <cfRule type="duplicateValues" dxfId="152" priority="145"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H82">
-    <cfRule type="duplicateValues" dxfId="151" priority="146"/>
-    <cfRule type="duplicateValues" dxfId="150" priority="147"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J52">
-    <cfRule type="duplicateValues" dxfId="149" priority="113"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H52">
-    <cfRule type="duplicateValues" dxfId="148" priority="114"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J85">
-    <cfRule type="duplicateValues" dxfId="147" priority="111"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H85">
-    <cfRule type="duplicateValues" dxfId="146" priority="112"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="145" priority="107"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="144" priority="108"/>
-    <cfRule type="duplicateValues" dxfId="143" priority="109"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="duplicateValues" dxfId="142" priority="106"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6:H7">
-    <cfRule type="duplicateValues" dxfId="141" priority="110"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="140" priority="102"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3">
-    <cfRule type="duplicateValues" dxfId="139" priority="105"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="138" priority="103"/>
-    <cfRule type="duplicateValues" dxfId="137" priority="104"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="duplicateValues" dxfId="136" priority="101"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="duplicateValues" dxfId="135" priority="98"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="duplicateValues" dxfId="134" priority="99"/>
-    <cfRule type="duplicateValues" dxfId="133" priority="100"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9">
-    <cfRule type="duplicateValues" dxfId="132" priority="96"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="duplicateValues" dxfId="131" priority="95"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="duplicateValues" dxfId="130" priority="92"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="duplicateValues" dxfId="129" priority="93"/>
-    <cfRule type="duplicateValues" dxfId="128" priority="94"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="duplicateValues" dxfId="127" priority="89"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="duplicateValues" dxfId="126" priority="90"/>
-    <cfRule type="duplicateValues" dxfId="125" priority="91"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J21">
-    <cfRule type="duplicateValues" dxfId="124" priority="81"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
-    <cfRule type="duplicateValues" dxfId="123" priority="82"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="duplicateValues" dxfId="122" priority="77"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="duplicateValues" dxfId="121" priority="309"/>
-    <cfRule type="duplicateValues" dxfId="120" priority="310"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10">
-    <cfRule type="duplicateValues" dxfId="119" priority="72"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="duplicateValues" dxfId="118" priority="69"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="duplicateValues" dxfId="117" priority="70"/>
-    <cfRule type="duplicateValues" dxfId="116" priority="71"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="duplicateValues" dxfId="115" priority="66"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="duplicateValues" dxfId="114" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="113" priority="68"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
-    <cfRule type="duplicateValues" dxfId="112" priority="65"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J29">
-    <cfRule type="duplicateValues" dxfId="111" priority="64"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
-    <cfRule type="duplicateValues" dxfId="110" priority="61"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
-    <cfRule type="duplicateValues" dxfId="109" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="108" priority="63"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
-    <cfRule type="duplicateValues" dxfId="107" priority="58"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
-    <cfRule type="duplicateValues" dxfId="106" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="105" priority="60"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="duplicateValues" dxfId="104" priority="55"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="duplicateValues" dxfId="103" priority="56"/>
-    <cfRule type="duplicateValues" dxfId="102" priority="57"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J40">
-    <cfRule type="duplicateValues" dxfId="101" priority="52"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J40">
-    <cfRule type="duplicateValues" dxfId="100" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="99" priority="54"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J37">
-    <cfRule type="duplicateValues" dxfId="98" priority="51"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
-    <cfRule type="duplicateValues" dxfId="97" priority="48"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
-    <cfRule type="duplicateValues" dxfId="96" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="95" priority="50"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
-    <cfRule type="duplicateValues" dxfId="94" priority="45"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
-    <cfRule type="duplicateValues" dxfId="93" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="92" priority="47"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
-    <cfRule type="duplicateValues" dxfId="91" priority="42"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
-    <cfRule type="duplicateValues" dxfId="90" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="89" priority="44"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="duplicateValues" dxfId="88" priority="39"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="duplicateValues" dxfId="87" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="41"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
-    <cfRule type="duplicateValues" dxfId="85" priority="36"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
-    <cfRule type="duplicateValues" dxfId="84" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="83" priority="38"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
-    <cfRule type="duplicateValues" dxfId="82" priority="33"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
-    <cfRule type="duplicateValues" dxfId="81" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="80" priority="35"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J33">
-    <cfRule type="duplicateValues" dxfId="79" priority="32"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J88">
-    <cfRule type="duplicateValues" dxfId="78" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H88">
-    <cfRule type="duplicateValues" dxfId="77" priority="31"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H87">
-    <cfRule type="duplicateValues" dxfId="76" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H87">
-    <cfRule type="duplicateValues" dxfId="75" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="74" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H86">
-    <cfRule type="duplicateValues" dxfId="73" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H86">
-    <cfRule type="duplicateValues" dxfId="72" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
+    <cfRule type="duplicateValues" dxfId="72" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J64">
+    <cfRule type="duplicateValues" dxfId="71" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J67">
     <cfRule type="duplicateValues" dxfId="70" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J64">
+  <conditionalFormatting sqref="H67">
     <cfRule type="duplicateValues" dxfId="69" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J67">
+  <conditionalFormatting sqref="H59">
     <cfRule type="duplicateValues" dxfId="68" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H67">
+  <conditionalFormatting sqref="J59">
     <cfRule type="duplicateValues" dxfId="67" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
+  <conditionalFormatting sqref="J65">
     <cfRule type="duplicateValues" dxfId="66" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J59">
+  <conditionalFormatting sqref="H65">
     <cfRule type="duplicateValues" dxfId="65" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J65">
+  <conditionalFormatting sqref="J58">
     <cfRule type="duplicateValues" dxfId="64" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H65">
+  <conditionalFormatting sqref="H58">
     <cfRule type="duplicateValues" dxfId="63" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J58">
+  <conditionalFormatting sqref="J63">
     <cfRule type="duplicateValues" dxfId="62" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H58">
+  <conditionalFormatting sqref="H63">
     <cfRule type="duplicateValues" dxfId="61" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J63">
-    <cfRule type="duplicateValues" dxfId="60" priority="9"/>
+  <conditionalFormatting sqref="J61">
+    <cfRule type="duplicateValues" dxfId="60" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H63">
-    <cfRule type="duplicateValues" dxfId="59" priority="10"/>
+  <conditionalFormatting sqref="H61">
+    <cfRule type="duplicateValues" dxfId="59" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J61">
+  <conditionalFormatting sqref="J69">
     <cfRule type="duplicateValues" dxfId="58" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H61">
+  <conditionalFormatting sqref="H69">
     <cfRule type="duplicateValues" dxfId="57" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation showInputMessage="1" sqref="I219 I2 I5 I10" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation showInputMessage="1" sqref="I210 I2 I5 I10" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="F1:G27 F28 F29:G31 F36 F32 F33:G35 F37:G1048576" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -24385,8 +23737,8 @@
   <sheetPr codeName="Sheet28"/>
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -24448,7 +23800,7 @@
         <v>84</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>26</v>
@@ -24795,7 +24147,7 @@
         <v>84</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>26</v>
@@ -24893,7 +24245,7 @@
         <v>84</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>26</v>
@@ -25117,7 +24469,7 @@
         <v>84</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>26</v>
@@ -25131,7 +24483,7 @@
         <v>84</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>26</v>
@@ -25145,7 +24497,7 @@
         <v>84</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>26</v>
@@ -25153,13 +24505,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>26</v>
@@ -25173,7 +24525,7 @@
         <v>84</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>26</v>
@@ -25181,13 +24533,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>26</v>
@@ -25195,13 +24547,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>26</v>
@@ -25209,13 +24561,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>26</v>
@@ -25223,13 +24575,13 @@
     </row>
     <row r="60" spans="1:4" ht="12" customHeight="1">
       <c r="A60" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>26</v>
@@ -25237,13 +24589,13 @@
     </row>
     <row r="61" spans="1:4" ht="12" customHeight="1">
       <c r="A61" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>26</v>
@@ -25251,13 +24603,13 @@
     </row>
     <row r="62" spans="1:4" ht="12" customHeight="1">
       <c r="A62" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>26</v>
@@ -25265,13 +24617,13 @@
     </row>
     <row r="63" spans="1:4" ht="12" customHeight="1">
       <c r="A63" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>26</v>
@@ -25279,13 +24631,13 @@
     </row>
     <row r="64" spans="1:4" ht="12" customHeight="1">
       <c r="A64" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>26</v>
@@ -25293,13 +24645,13 @@
     </row>
     <row r="65" spans="1:4" ht="12" customHeight="1">
       <c r="A65" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>26</v>
@@ -25307,13 +24659,13 @@
     </row>
     <row r="66" spans="1:4" ht="12" customHeight="1">
       <c r="A66" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>26</v>
@@ -25321,13 +24673,13 @@
     </row>
     <row r="67" spans="1:4" ht="12" customHeight="1">
       <c r="A67" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>26</v>
@@ -25335,13 +24687,13 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>26</v>
@@ -25349,13 +24701,13 @@
     </row>
     <row r="69" spans="1:4" s="8" customFormat="1">
       <c r="A69" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>26</v>
@@ -25363,13 +24715,13 @@
     </row>
     <row r="70" spans="1:4" s="8" customFormat="1">
       <c r="A70" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>26</v>
@@ -25380,7 +24732,7 @@
         <v>84</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>26</v>
@@ -25388,13 +24740,13 @@
     </row>
     <row r="72" spans="1:4" s="8" customFormat="1">
       <c r="A72" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>26</v>
@@ -25402,13 +24754,13 @@
     </row>
     <row r="73" spans="1:4" s="8" customFormat="1">
       <c r="A73" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>26</v>
@@ -25416,13 +24768,13 @@
     </row>
     <row r="74" spans="1:4" s="8" customFormat="1">
       <c r="A74" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>26</v>
@@ -25430,13 +24782,13 @@
     </row>
     <row r="75" spans="1:4" s="8" customFormat="1">
       <c r="A75" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>26</v>
@@ -25450,7 +24802,7 @@
         <v>84</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>26</v>
@@ -25458,13 +24810,13 @@
     </row>
     <row r="77" spans="1:4" s="8" customFormat="1">
       <c r="A77" s="4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>26</v>
@@ -25472,13 +24824,13 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>26</v>
@@ -25486,13 +24838,13 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>26</v>
